--- a/Wyniki 3/S3.xlsx
+++ b/Wyniki 3/S3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2896150D-ECB3-448A-AF83-EA121DF5B2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1313CCF3-F719-463C-96ED-98B2413CE4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REST" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="320">
   <si>
     <t>Maksymalna liczba użytkowników</t>
   </si>
@@ -596,24 +596,6 @@
     <t>2,15ms</t>
   </si>
   <si>
-    <t>151,74ms</t>
-  </si>
-  <si>
-    <t>3,73ms</t>
-  </si>
-  <si>
-    <t>3,09ms</t>
-  </si>
-  <si>
-    <t>147,04ms</t>
-  </si>
-  <si>
-    <t>6,75ms</t>
-  </si>
-  <si>
-    <t>9,25ms</t>
-  </si>
-  <si>
     <t>1,51ms</t>
   </si>
   <si>
@@ -648,6 +630,375 @@
   </si>
   <si>
     <t>1,55s</t>
+  </si>
+  <si>
+    <t>2,82ms</t>
+  </si>
+  <si>
+    <t>150,3ms</t>
+  </si>
+  <si>
+    <t>4,3ms</t>
+  </si>
+  <si>
+    <t>5,09ms</t>
+  </si>
+  <si>
+    <t>134MB</t>
+  </si>
+  <si>
+    <t>86MB</t>
+  </si>
+  <si>
+    <t>3,03ms</t>
+  </si>
+  <si>
+    <t>161,5ms</t>
+  </si>
+  <si>
+    <t>4,65ms</t>
+  </si>
+  <si>
+    <t>5,33ms</t>
+  </si>
+  <si>
+    <t>2,97ms</t>
+  </si>
+  <si>
+    <t>147,38ms</t>
+  </si>
+  <si>
+    <t>4,55ms</t>
+  </si>
+  <si>
+    <t>5,24ms</t>
+  </si>
+  <si>
+    <t>153,69ms</t>
+  </si>
+  <si>
+    <t>4,78ms</t>
+  </si>
+  <si>
+    <t>5,64ms</t>
+  </si>
+  <si>
+    <t>161,49ms</t>
+  </si>
+  <si>
+    <t>4,63ms</t>
+  </si>
+  <si>
+    <t>5,34ms</t>
+  </si>
+  <si>
+    <t>2,3ms</t>
+  </si>
+  <si>
+    <t>58,94ms</t>
+  </si>
+  <si>
+    <t>3,66ms</t>
+  </si>
+  <si>
+    <t>859MB</t>
+  </si>
+  <si>
+    <t>2,44ms</t>
+  </si>
+  <si>
+    <t>142,27ms</t>
+  </si>
+  <si>
+    <t>3,83ms</t>
+  </si>
+  <si>
+    <t>4,86ms</t>
+  </si>
+  <si>
+    <t>2,32ms</t>
+  </si>
+  <si>
+    <t>149,71ms</t>
+  </si>
+  <si>
+    <t>3,72ms</t>
+  </si>
+  <si>
+    <t>4,7ms</t>
+  </si>
+  <si>
+    <t>2,24ms</t>
+  </si>
+  <si>
+    <t>156,64ms</t>
+  </si>
+  <si>
+    <t>3,62ms</t>
+  </si>
+  <si>
+    <t>4,45ms</t>
+  </si>
+  <si>
+    <t>3,37ms</t>
+  </si>
+  <si>
+    <t>197,31ms</t>
+  </si>
+  <si>
+    <t>4,62ms</t>
+  </si>
+  <si>
+    <t>7,31ms</t>
+  </si>
+  <si>
+    <t>858MB</t>
+  </si>
+  <si>
+    <t>2,03s</t>
+  </si>
+  <si>
+    <t>2,45s</t>
+  </si>
+  <si>
+    <t>2,36s</t>
+  </si>
+  <si>
+    <t>2,38s</t>
+  </si>
+  <si>
+    <t>1,8GB</t>
+  </si>
+  <si>
+    <t>1,1GB</t>
+  </si>
+  <si>
+    <t>2,68s</t>
+  </si>
+  <si>
+    <t>2,37s</t>
+  </si>
+  <si>
+    <t>2,04s</t>
+  </si>
+  <si>
+    <t>1,53s</t>
+  </si>
+  <si>
+    <t>2,39s</t>
+  </si>
+  <si>
+    <t>2,09s</t>
+  </si>
+  <si>
+    <t>2,64s</t>
+  </si>
+  <si>
+    <t>2,43s</t>
+  </si>
+  <si>
+    <t>1,7GB</t>
+  </si>
+  <si>
+    <t>2,56s</t>
+  </si>
+  <si>
+    <t>3,1ms</t>
+  </si>
+  <si>
+    <t>148,8ms</t>
+  </si>
+  <si>
+    <t>4,87ms</t>
+  </si>
+  <si>
+    <t>59MB</t>
+  </si>
+  <si>
+    <t>47MB</t>
+  </si>
+  <si>
+    <t>3,06ms</t>
+  </si>
+  <si>
+    <t>159,66ms</t>
+  </si>
+  <si>
+    <t>4,93ms</t>
+  </si>
+  <si>
+    <t>5,79ms</t>
+  </si>
+  <si>
+    <t>154,36ms</t>
+  </si>
+  <si>
+    <t>4,69ms</t>
+  </si>
+  <si>
+    <t>5,4ms</t>
+  </si>
+  <si>
+    <t>3,01ms</t>
+  </si>
+  <si>
+    <t>152,08ms</t>
+  </si>
+  <si>
+    <t>4,74ms</t>
+  </si>
+  <si>
+    <t>5,25ms</t>
+  </si>
+  <si>
+    <t>159,9ms</t>
+  </si>
+  <si>
+    <t>5,69ms</t>
+  </si>
+  <si>
+    <t>2,16ms</t>
+  </si>
+  <si>
+    <t>147,78ms</t>
+  </si>
+  <si>
+    <t>3,47ms</t>
+  </si>
+  <si>
+    <t>4,15ms</t>
+  </si>
+  <si>
+    <t>594MB</t>
+  </si>
+  <si>
+    <t>470MB</t>
+  </si>
+  <si>
+    <t>2,22ms</t>
+  </si>
+  <si>
+    <t>160,96ms</t>
+  </si>
+  <si>
+    <t>3,6ms</t>
+  </si>
+  <si>
+    <t>4,28ms</t>
+  </si>
+  <si>
+    <t>593MB</t>
+  </si>
+  <si>
+    <t>152,46ms</t>
+  </si>
+  <si>
+    <t>3,59ms</t>
+  </si>
+  <si>
+    <t>4,25ms</t>
+  </si>
+  <si>
+    <t>66,67ms</t>
+  </si>
+  <si>
+    <t>3,46ms</t>
+  </si>
+  <si>
+    <t>4,12ms</t>
+  </si>
+  <si>
+    <t>155,03ms</t>
+  </si>
+  <si>
+    <t>4,29ms</t>
+  </si>
+  <si>
+    <t>1,88s</t>
+  </si>
+  <si>
+    <t>2,27s</t>
+  </si>
+  <si>
+    <t>2,19s</t>
+  </si>
+  <si>
+    <t>2,21s</t>
+  </si>
+  <si>
+    <t>825MB</t>
+  </si>
+  <si>
+    <t>654MB</t>
+  </si>
+  <si>
+    <t>1,84s</t>
+  </si>
+  <si>
+    <t>2,96s</t>
+  </si>
+  <si>
+    <t>2,14s</t>
+  </si>
+  <si>
+    <t>2,18s</t>
+  </si>
+  <si>
+    <t>836MB</t>
+  </si>
+  <si>
+    <t>663MB</t>
+  </si>
+  <si>
+    <t>2,3s</t>
+  </si>
+  <si>
+    <t>2,16s</t>
+  </si>
+  <si>
+    <t>837MB</t>
+  </si>
+  <si>
+    <t>2,55s</t>
+  </si>
+  <si>
+    <t>2,2s</t>
+  </si>
+  <si>
+    <t>824MB</t>
+  </si>
+  <si>
+    <t>653MB</t>
+  </si>
+  <si>
+    <t>1,89s</t>
+  </si>
+  <si>
+    <t>823MB</t>
+  </si>
+  <si>
+    <t>652MB</t>
+  </si>
+  <si>
+    <t>1,62ms</t>
+  </si>
+  <si>
+    <t>156ms</t>
+  </si>
+  <si>
+    <t>2,52ms</t>
+  </si>
+  <si>
+    <t>2,77ms</t>
+  </si>
+  <si>
+    <t>2,01ms</t>
+  </si>
+  <si>
+    <t>88,12ms</t>
+  </si>
+  <si>
+    <t>4,05ms</t>
   </si>
 </sst>
 </file>
@@ -819,6 +1170,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>39249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD951DDF-CE1C-720F-2ADB-B182E947CAA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11687175" y="1143000"/>
+          <a:ext cx="3581900" cy="8230749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>67110</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95822</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3D1F9CC-820E-46DC-0A69-8A4A3202129D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12020550" y="1143000"/>
+          <a:ext cx="3115110" cy="4096322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1086,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E7:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2034,8 +2483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E427240-8CAA-40AB-9EE3-C007F0D8C5C2}">
   <dimension ref="E7:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2473,13 +2922,13 @@
         <v>181</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>184</v>
+        <v>317</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.25">
@@ -2515,13 +2964,13 @@
         <v>17</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>185</v>
+        <v>318</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>188</v>
+        <v>314</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="5:11" x14ac:dyDescent="0.25">
@@ -2536,13 +2985,13 @@
         <v>182</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>189</v>
+        <v>315</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.25">
@@ -2557,13 +3006,13 @@
         <v>183</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>190</v>
+        <v>316</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="5:11" x14ac:dyDescent="0.25">
@@ -2578,10 +3027,10 @@
         <v>838983</v>
       </c>
       <c r="I32" s="2">
-        <v>838510</v>
+        <v>838628</v>
       </c>
       <c r="J32" s="2">
-        <v>837748</v>
+        <v>838899</v>
       </c>
       <c r="K32" s="2">
         <v>839005</v>
@@ -2599,10 +3048,10 @@
         <v>960.9</v>
       </c>
       <c r="I33" s="2">
-        <v>960.5</v>
+        <v>960.6</v>
       </c>
       <c r="J33" s="2">
-        <v>960.9</v>
+        <v>960.3</v>
       </c>
       <c r="K33" s="2">
         <v>960.9</v>
@@ -2620,10 +3069,10 @@
         <v>873.16</v>
       </c>
       <c r="I34" s="2">
-        <v>873</v>
+        <v>873.05</v>
       </c>
       <c r="J34" s="2">
-        <v>871.79</v>
+        <v>873.57</v>
       </c>
       <c r="K34" s="2">
         <v>873.17</v>
@@ -2805,19 +3254,19 @@
         <v>3</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="J43" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="5:11" x14ac:dyDescent="0.25">
@@ -2829,7 +3278,7 @@
         <v>28</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>28</v>
@@ -2847,19 +3296,19 @@
         <v>5</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="5:11" x14ac:dyDescent="0.25">
@@ -2931,19 +3380,19 @@
         <v>11</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="5:11" x14ac:dyDescent="0.25">
@@ -2952,19 +3401,19 @@
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2982,15 +3431,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FCC0AA-C984-4903-81D8-D871D2663DA5}">
   <dimension ref="E7:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:K36"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
     <col min="6" max="6" width="32.5703125" customWidth="1"/>
-    <col min="7" max="11" width="9" customWidth="1"/>
+    <col min="7" max="11" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="5:11" x14ac:dyDescent="0.25">
@@ -3034,154 +3483,294 @@
       <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E13" s="7"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E14" s="7"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E15" s="7"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="16" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E16" s="7"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="G18" s="1">
+        <v>83838</v>
+      </c>
+      <c r="H18" s="1">
+        <v>83818</v>
+      </c>
+      <c r="I18" s="1">
+        <v>83822</v>
+      </c>
+      <c r="J18" s="1">
+        <v>83819</v>
+      </c>
+      <c r="K18" s="1">
+        <v>83819</v>
+      </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E19" s="7"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="G19" s="1">
+        <v>960.2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>960.4</v>
+      </c>
+      <c r="I19" s="1">
+        <v>960.4</v>
+      </c>
+      <c r="J19" s="1">
+        <v>960.4</v>
+      </c>
+      <c r="K19" s="1">
+        <v>960.4</v>
+      </c>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E20" s="7"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="G20" s="1">
+        <v>87.31</v>
+      </c>
+      <c r="H20" s="1">
+        <v>87.27</v>
+      </c>
+      <c r="I20" s="1">
+        <v>87.28</v>
+      </c>
+      <c r="J20" s="1">
+        <v>87.27</v>
+      </c>
+      <c r="K20" s="1">
+        <v>87.28</v>
+      </c>
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E21" s="7"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="22" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E23" s="6">
@@ -3190,154 +3779,294 @@
       <c r="F23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="24" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="25" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="26" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="27" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="30" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E30" s="7"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E31" s="7"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="32" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E32" s="7"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="G32" s="2">
+        <v>838295</v>
+      </c>
+      <c r="H32" s="2">
+        <v>838174</v>
+      </c>
+      <c r="I32" s="2">
+        <v>838291</v>
+      </c>
+      <c r="J32" s="2">
+        <v>838349</v>
+      </c>
+      <c r="K32" s="2">
+        <v>837378</v>
+      </c>
     </row>
     <row r="33" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E33" s="7"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="G33" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="H33" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="I33" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="J33" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="K33" s="2">
+        <v>960.5</v>
+      </c>
     </row>
     <row r="34" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E34" s="7"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="G34" s="2">
+        <v>872.59</v>
+      </c>
+      <c r="H34" s="2">
+        <v>872.43</v>
+      </c>
+      <c r="I34" s="2">
+        <v>872.63</v>
+      </c>
+      <c r="J34" s="2">
+        <v>872.66</v>
+      </c>
+      <c r="K34" s="2">
+        <v>871.85</v>
+      </c>
     </row>
     <row r="35" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E35" s="7"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="36" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="37" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E37" s="6">
@@ -3346,154 +4075,294 @@
       <c r="F37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="38" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E38" s="7"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="39" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E39" s="7"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="40" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E40" s="7"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="41" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E41" s="7"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="42" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E42" s="7"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E43" s="7"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="44" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E44" s="7"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="45" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E45" s="7"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="46" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E46" s="7"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+      <c r="G46" s="1">
+        <v>1108445</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1107137</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1103173</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1085961</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1103431</v>
+      </c>
     </row>
     <row r="47" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E47" s="7"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
+      <c r="G47" s="1">
+        <v>960.5</v>
+      </c>
+      <c r="H47" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="I47" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="J47" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="K47" s="1">
+        <v>960.7</v>
+      </c>
     </row>
     <row r="48" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E48" s="7"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+      <c r="G48" s="1">
+        <v>1154.06</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1152.44</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1148.25</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1130.3599999999999</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1148.53</v>
+      </c>
     </row>
     <row r="49" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E49" s="7"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="50" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>243</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3503,6 +4372,7 @@
     <mergeCell ref="E37:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3510,8 +4380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33E3BDB-BD67-41A1-991C-2FB34B0212C5}">
   <dimension ref="E7:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3562,154 +4432,294 @@
       <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E13" s="7"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="14" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E14" s="7"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E15" s="7"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="16" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E16" s="7"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="G18" s="1">
+        <v>83817</v>
+      </c>
+      <c r="H18" s="1">
+        <v>83817</v>
+      </c>
+      <c r="I18" s="1">
+        <v>83825</v>
+      </c>
+      <c r="J18" s="1">
+        <v>83821</v>
+      </c>
+      <c r="K18" s="1">
+        <v>83821</v>
+      </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E19" s="7"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="G19" s="1">
+        <v>960.2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="I19" s="1">
+        <v>960.2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>960.2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>960.2</v>
+      </c>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E20" s="7"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="G20" s="1">
+        <v>87.29</v>
+      </c>
+      <c r="H20" s="1">
+        <v>87.26</v>
+      </c>
+      <c r="I20" s="1">
+        <v>87.29</v>
+      </c>
+      <c r="J20" s="1">
+        <v>87.29</v>
+      </c>
+      <c r="K20" s="1">
+        <v>87.29</v>
+      </c>
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E21" s="7"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="22" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E23" s="6">
@@ -3718,154 +4728,294 @@
       <c r="F23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="24" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="25" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="26" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="27" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="30" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E30" s="7"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E31" s="7"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="32" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E32" s="7"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="G32" s="2">
+        <v>838418</v>
+      </c>
+      <c r="H32" s="2">
+        <v>838379</v>
+      </c>
+      <c r="I32" s="2">
+        <v>838369</v>
+      </c>
+      <c r="J32" s="2">
+        <v>838435</v>
+      </c>
+      <c r="K32" s="2">
+        <v>838380</v>
+      </c>
     </row>
     <row r="33" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E33" s="7"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="G33" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="H33" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="I33" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="J33" s="2">
+        <v>960.6</v>
+      </c>
+      <c r="K33" s="2">
+        <v>960.7</v>
+      </c>
     </row>
     <row r="34" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E34" s="7"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="G34" s="2">
+        <v>872.73</v>
+      </c>
+      <c r="H34" s="2">
+        <v>872.69</v>
+      </c>
+      <c r="I34" s="2">
+        <v>872.64</v>
+      </c>
+      <c r="J34" s="2">
+        <v>872.8</v>
+      </c>
+      <c r="K34" s="2">
+        <v>872.68</v>
+      </c>
     </row>
     <row r="35" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E35" s="7"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="36" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="37" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E37" s="6">
@@ -3874,154 +5024,294 @@
       <c r="F37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="38" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E38" s="7"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="39" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E39" s="7"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="40" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E40" s="7"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="41" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E41" s="7"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="42" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E42" s="7"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E43" s="7"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="44" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E44" s="7"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="45" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E45" s="7"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="46" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E46" s="7"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+      <c r="G46" s="1">
+        <v>1165416</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1180998</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1182111</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1164213</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1162136</v>
+      </c>
     </row>
     <row r="47" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E47" s="7"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
+      <c r="G47" s="1">
+        <v>960.4</v>
+      </c>
+      <c r="H47" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="I47" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="J47" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="K47" s="1">
+        <v>960.9</v>
+      </c>
     </row>
     <row r="48" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E48" s="7"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+      <c r="G48" s="1">
+        <v>1213.42</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1229.31</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1230.6400000000001</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1211.93</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1209.43</v>
+      </c>
     </row>
     <row r="49" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E49" s="7"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="50" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>312</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4031,5 +5321,6 @@
     <mergeCell ref="E37:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Wyniki 3/S3.xlsx
+++ b/Wyniki 3/S3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1313CCF3-F719-463C-96ED-98B2413CE4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559E6FE9-C84B-46B2-BF30-5B926D0F5488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1535,7 +1535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E7:K50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
@@ -3431,7 +3431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FCC0AA-C984-4903-81D8-D871D2663DA5}">
   <dimension ref="E7:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
@@ -4380,8 +4380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33E3BDB-BD67-41A1-991C-2FB34B0212C5}">
   <dimension ref="E7:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Wyniki 3/S3.xlsx
+++ b/Wyniki 3/S3.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559E6FE9-C84B-46B2-BF30-5B926D0F5488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016FD07C-14F3-420D-85DB-A29AEE76B3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REST" sheetId="1" r:id="rId1"/>
     <sheet name="REST - jeden endpoint" sheetId="4" r:id="rId2"/>
     <sheet name="Graphql" sheetId="5" r:id="rId3"/>
     <sheet name="Graphql - wybrane dane" sheetId="6" r:id="rId4"/>
+    <sheet name="Graphql - wybrane dane, optymal" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="364">
   <si>
     <t>Maksymalna liczba użytkowników</t>
   </si>
@@ -999,6 +1000,138 @@
   </si>
   <si>
     <t>4,05ms</t>
+  </si>
+  <si>
+    <t>1,16ms</t>
+  </si>
+  <si>
+    <t>140,98ms</t>
+  </si>
+  <si>
+    <t>1,64ms</t>
+  </si>
+  <si>
+    <t>1,94ms</t>
+  </si>
+  <si>
+    <t>60MB</t>
+  </si>
+  <si>
+    <t>48MB</t>
+  </si>
+  <si>
+    <t>1,12ms</t>
+  </si>
+  <si>
+    <t>147,92ms</t>
+  </si>
+  <si>
+    <t>1,71ms</t>
+  </si>
+  <si>
+    <t>135,6ms</t>
+  </si>
+  <si>
+    <t>1,5ms</t>
+  </si>
+  <si>
+    <t>142,44ms</t>
+  </si>
+  <si>
+    <t>1,11ms</t>
+  </si>
+  <si>
+    <t>144,38ms</t>
+  </si>
+  <si>
+    <t>1,55ms</t>
+  </si>
+  <si>
+    <t>1,68ms</t>
+  </si>
+  <si>
+    <t>1,21ms</t>
+  </si>
+  <si>
+    <t>147,093ms</t>
+  </si>
+  <si>
+    <t>2,21ms</t>
+  </si>
+  <si>
+    <t>602MB</t>
+  </si>
+  <si>
+    <t>478MB</t>
+  </si>
+  <si>
+    <t>1,24ms</t>
+  </si>
+  <si>
+    <t>149,07ms</t>
+  </si>
+  <si>
+    <t>2,45ms</t>
+  </si>
+  <si>
+    <t>1,15ms</t>
+  </si>
+  <si>
+    <t>150,89ms</t>
+  </si>
+  <si>
+    <t>1,83ms</t>
+  </si>
+  <si>
+    <t>2,11ms</t>
+  </si>
+  <si>
+    <t>145,41ms</t>
+  </si>
+  <si>
+    <t>1,81ms</t>
+  </si>
+  <si>
+    <t>1,14ms</t>
+  </si>
+  <si>
+    <t>148,98ms</t>
+  </si>
+  <si>
+    <t>1,76ms</t>
+  </si>
+  <si>
+    <t>2,09ms</t>
+  </si>
+  <si>
+    <t>1160ms</t>
+  </si>
+  <si>
+    <t>1520ms</t>
+  </si>
+  <si>
+    <t>1370ms</t>
+  </si>
+  <si>
+    <t>1380ms</t>
+  </si>
+  <si>
+    <t>884MB</t>
+  </si>
+  <si>
+    <t>885MB</t>
+  </si>
+  <si>
+    <t>1550ms</t>
+  </si>
+  <si>
+    <t>883MB</t>
+  </si>
+  <si>
+    <t>1170ms</t>
+  </si>
+  <si>
+    <t>1490ms</t>
   </si>
 </sst>
 </file>
@@ -1259,6 +1392,55 @@
         <a:xfrm>
           <a:off x="12020550" y="1143000"/>
           <a:ext cx="3115110" cy="4096322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>537519</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{582E8B53-C2EA-7869-70EA-D6034607D2D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11779250" y="1104901"/>
+          <a:ext cx="3585519" cy="4260850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1535,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E7:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2483,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E427240-8CAA-40AB-9EE3-C007F0D8C5C2}">
   <dimension ref="E7:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R50" sqref="R50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3431,8 +3613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FCC0AA-C984-4903-81D8-D871D2663DA5}">
   <dimension ref="E7:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4380,8 +4562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33E3BDB-BD67-41A1-991C-2FB34B0212C5}">
   <dimension ref="E7:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView topLeftCell="D19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5323,4 +5505,953 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DECBD8-A425-424A-AD1A-0E08D414502E}">
+  <dimension ref="E7:K50"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O52" sqref="O52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="7" max="11" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E9" s="6">
+        <v>100</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E10" s="7"/>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E11" s="7"/>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E12" s="7"/>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E13" s="7"/>
+      <c r="F13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E14" s="7"/>
+      <c r="F14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E15" s="7"/>
+      <c r="F15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E16" s="7"/>
+      <c r="F16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E17" s="7"/>
+      <c r="F17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E18" s="7"/>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1">
+        <v>83978</v>
+      </c>
+      <c r="H18" s="1">
+        <v>83982</v>
+      </c>
+      <c r="I18" s="1">
+        <v>83984</v>
+      </c>
+      <c r="J18" s="1">
+        <v>83976</v>
+      </c>
+      <c r="K18" s="1">
+        <v>83979</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E19" s="7"/>
+      <c r="F19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="H19" s="1">
+        <v>960.5</v>
+      </c>
+      <c r="I19" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="J19" s="1">
+        <v>960.5</v>
+      </c>
+      <c r="K19" s="1">
+        <v>960.5</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E20" s="7"/>
+      <c r="F20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="1">
+        <v>87.42</v>
+      </c>
+      <c r="H20" s="1">
+        <v>87.44</v>
+      </c>
+      <c r="I20" s="1">
+        <v>87.43</v>
+      </c>
+      <c r="J20" s="1">
+        <v>87.43</v>
+      </c>
+      <c r="K20" s="1">
+        <v>87.43</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E21" s="7"/>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E22" s="8"/>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E23" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E24" s="7"/>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E25" s="7"/>
+      <c r="F25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E26" s="7"/>
+      <c r="F26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E27" s="7"/>
+      <c r="F27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E28" s="7"/>
+      <c r="F28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E29" s="7"/>
+      <c r="F29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E30" s="7"/>
+      <c r="F30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E31" s="7"/>
+      <c r="F31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E32" s="7"/>
+      <c r="F32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2">
+        <v>839233</v>
+      </c>
+      <c r="H32" s="2">
+        <v>839206</v>
+      </c>
+      <c r="I32" s="2">
+        <v>839267</v>
+      </c>
+      <c r="J32" s="2">
+        <v>839275</v>
+      </c>
+      <c r="K32" s="2">
+        <v>839285</v>
+      </c>
+    </row>
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E33" s="7"/>
+      <c r="F33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="2">
+        <v>960.8</v>
+      </c>
+      <c r="H33" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="I33" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="J33" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="K33" s="2">
+        <v>960.6</v>
+      </c>
+    </row>
+    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E34" s="7"/>
+      <c r="F34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="2">
+        <v>873.52</v>
+      </c>
+      <c r="H34" s="2">
+        <v>873.52</v>
+      </c>
+      <c r="I34" s="2">
+        <v>873.6</v>
+      </c>
+      <c r="J34" s="2">
+        <v>873.62</v>
+      </c>
+      <c r="K34" s="2">
+        <v>873.67</v>
+      </c>
+    </row>
+    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E35" s="7"/>
+      <c r="F35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E36" s="8"/>
+      <c r="F36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E37" s="6">
+        <v>4000</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E38" s="7"/>
+      <c r="F38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E39" s="7"/>
+      <c r="F39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E40" s="7"/>
+      <c r="F40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E41" s="7"/>
+      <c r="F41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E42" s="7"/>
+      <c r="F42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E43" s="7"/>
+      <c r="F43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1490</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E44" s="7"/>
+      <c r="F44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1360</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E45" s="7"/>
+      <c r="F45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1380</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E46" s="7"/>
+      <c r="F46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1550259</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1550927</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1553287</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1549793</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1549059</v>
+      </c>
+    </row>
+    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E47" s="7"/>
+      <c r="F47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="H47" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="I47" s="1">
+        <v>960.5</v>
+      </c>
+      <c r="J47" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="K47" s="1">
+        <v>960.6</v>
+      </c>
+    </row>
+    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E48" s="7"/>
+      <c r="F48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1613.29</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1613.96</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1617.09</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1613.39</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1612.53</v>
+      </c>
+    </row>
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E49" s="7"/>
+      <c r="F49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E50" s="8"/>
+      <c r="F50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="E9:E22"/>
+    <mergeCell ref="E23:E36"/>
+    <mergeCell ref="E37:E50"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Wyniki 3/S3.xlsx
+++ b/Wyniki 3/S3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016FD07C-14F3-420D-85DB-A29AEE76B3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE5978A-B942-44AD-A6FF-C7114256C688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REST" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Graphql" sheetId="5" r:id="rId3"/>
     <sheet name="Graphql - wybrane dane" sheetId="6" r:id="rId4"/>
     <sheet name="Graphql - wybrane dane, optymal" sheetId="7" r:id="rId5"/>
+    <sheet name="Graphql resolved" sheetId="8" r:id="rId6"/>
+    <sheet name="Graphql resolved wybrane" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="371">
   <si>
     <t>Maksymalna liczba użytkowników</t>
   </si>
@@ -1132,6 +1134,27 @@
   </si>
   <si>
     <t>1490ms</t>
+  </si>
+  <si>
+    <t>856MB</t>
+  </si>
+  <si>
+    <t>2,1GB</t>
+  </si>
+  <si>
+    <t>591MB</t>
+  </si>
+  <si>
+    <t>467MB</t>
+  </si>
+  <si>
+    <t>590MB</t>
+  </si>
+  <si>
+    <t>831MB</t>
+  </si>
+  <si>
+    <t>832MB</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1388,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>67110</xdr:colOff>
+      <xdr:colOff>73460</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>95822</xdr:rowOff>
     </xdr:to>
@@ -1416,7 +1439,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>537519</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>25401</xdr:rowOff>
+      <xdr:rowOff>31751</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1441,6 +1464,104 @@
         <a:xfrm>
           <a:off x="11779250" y="1104901"/>
           <a:ext cx="3585519" cy="4260850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>537519</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC2F5490-2B22-4449-99D2-40A2D35B29C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11410950" y="1143001"/>
+          <a:ext cx="3585519" cy="4413250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>537519</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9808F0C-AF61-482D-96A5-B154D95CA949}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11410950" y="1143001"/>
+          <a:ext cx="3585519" cy="4413250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1715,10 +1836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E7:K50"/>
+  <dimension ref="E7:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView topLeftCell="D28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,7 +2053,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -1953,7 +2074,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -1973,8 +2094,12 @@
       <c r="K18" s="1">
         <v>417210</v>
       </c>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <f>AVERAGE(G18:K18)</f>
+        <v>417568</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E19" s="7"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -1994,8 +2119,12 @@
       <c r="K19" s="1">
         <v>960.3</v>
       </c>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f t="shared" ref="L19:L50" si="0">AVERAGE(G19:K19)</f>
+        <v>960.36</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E20" s="7"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -2015,8 +2144,12 @@
       <c r="K20" s="1">
         <v>434.46</v>
       </c>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>434.80199999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E21" s="7"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -2036,8 +2169,12 @@
       <c r="K21" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -2057,8 +2194,12 @@
       <c r="K22" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E23" s="6">
         <v>1000</v>
       </c>
@@ -2080,8 +2221,12 @@
       <c r="K23" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -2101,8 +2246,12 @@
       <c r="K24" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -2122,8 +2271,12 @@
       <c r="K25" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -2143,8 +2296,12 @@
       <c r="K26" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L26" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -2164,8 +2321,12 @@
       <c r="K27" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L27" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -2185,8 +2346,12 @@
       <c r="K28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -2206,8 +2371,12 @@
       <c r="K29" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E30" s="7"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -2227,8 +2396,12 @@
       <c r="K30" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L30" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E31" s="7"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -2248,8 +2421,12 @@
       <c r="K31" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E32" s="7"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -2269,8 +2446,12 @@
       <c r="K32" s="2">
         <v>3096045</v>
       </c>
-    </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>3143988</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E33" s="7"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -2290,8 +2471,12 @@
       <c r="K33" s="2">
         <v>961</v>
       </c>
-    </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>960.78</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E34" s="7"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -2311,8 +2496,12 @@
       <c r="K34" s="2">
         <v>3221.73</v>
       </c>
-    </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>3272.3519999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E35" s="7"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -2332,8 +2521,12 @@
       <c r="K35" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -2353,8 +2546,12 @@
       <c r="K36" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="6">
         <v>4000</v>
       </c>
@@ -2376,8 +2573,12 @@
       <c r="K37" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E38" s="7"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -2397,8 +2598,12 @@
       <c r="K38" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E39" s="7"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -2418,8 +2623,12 @@
       <c r="K39" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L39" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E40" s="7"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -2439,8 +2648,12 @@
       <c r="K40" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E41" s="7"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -2460,8 +2673,12 @@
       <c r="K41" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L41" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E42" s="7"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -2481,8 +2698,12 @@
       <c r="K42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E43" s="7"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -2502,8 +2723,12 @@
       <c r="K43" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L43" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E44" s="7"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -2523,8 +2748,12 @@
       <c r="K44" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L44" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E45" s="7"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -2544,8 +2773,12 @@
       <c r="K45" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L45" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E46" s="7"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -2565,8 +2798,12 @@
       <c r="K46" s="1">
         <v>3182630</v>
       </c>
-    </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>3219096</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E47" s="7"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -2586,8 +2823,12 @@
       <c r="K47" s="1">
         <v>960.8</v>
       </c>
-    </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>960.64</v>
+      </c>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E48" s="7"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -2607,8 +2848,12 @@
       <c r="K48" s="1">
         <v>3312.38</v>
       </c>
-    </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>3350.8300000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E49" s="7"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -2628,8 +2873,12 @@
       <c r="K49" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L49" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -2648,6 +2897,10 @@
       </c>
       <c r="K50" s="1" t="s">
         <v>153</v>
+      </c>
+      <c r="L50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -2663,10 +2916,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E427240-8CAA-40AB-9EE3-C007F0D8C5C2}">
-  <dimension ref="E7:K50"/>
+  <dimension ref="E7:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R50" sqref="R50"/>
+    <sheetView topLeftCell="C28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2880,7 +3133,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -2901,7 +3154,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -2921,8 +3174,12 @@
       <c r="K18" s="1">
         <v>83789</v>
       </c>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <f>AVERAGE(G18:K18)</f>
+        <v>83788.800000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E19" s="7"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -2942,8 +3199,12 @@
       <c r="K19" s="1">
         <v>960.7</v>
       </c>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f t="shared" ref="L19:L50" si="0">AVERAGE(G19:K19)</f>
+        <v>960.61999999999989</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E20" s="7"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -2963,8 +3224,12 @@
       <c r="K20" s="1">
         <v>87.22</v>
       </c>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>87.225999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E21" s="7"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -2984,8 +3249,12 @@
       <c r="K21" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -3005,8 +3274,12 @@
       <c r="K22" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E23" s="6">
         <v>1000</v>
       </c>
@@ -3028,8 +3301,12 @@
       <c r="K23" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -3049,8 +3326,12 @@
       <c r="K24" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -3070,8 +3351,12 @@
       <c r="K25" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -3091,8 +3376,12 @@
       <c r="K26" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L26" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -3112,8 +3401,12 @@
       <c r="K27" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L27" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -3133,8 +3426,12 @@
       <c r="K28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -3154,8 +3451,12 @@
       <c r="K29" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E30" s="7"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -3175,8 +3476,12 @@
       <c r="K30" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L30" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E31" s="7"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -3196,8 +3501,12 @@
       <c r="K31" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E32" s="7"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -3217,8 +3526,12 @@
       <c r="K32" s="2">
         <v>839005</v>
       </c>
-    </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>838899</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E33" s="7"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -3238,8 +3551,12 @@
       <c r="K33" s="2">
         <v>960.9</v>
       </c>
-    </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>960.71999999999991</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E34" s="7"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -3259,8 +3576,12 @@
       <c r="K34" s="2">
         <v>873.17</v>
       </c>
-    </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>873.21199999999988</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E35" s="7"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -3280,8 +3601,12 @@
       <c r="K35" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -3301,8 +3626,12 @@
       <c r="K36" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="6">
         <v>4000</v>
       </c>
@@ -3324,8 +3653,12 @@
       <c r="K37" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E38" s="7"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -3345,8 +3678,12 @@
       <c r="K38" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E39" s="7"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -3366,8 +3703,12 @@
       <c r="K39" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L39" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E40" s="7"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -3387,8 +3728,12 @@
       <c r="K40" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E41" s="7"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -3408,8 +3753,12 @@
       <c r="K41" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L41" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E42" s="7"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -3429,8 +3778,12 @@
       <c r="K42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E43" s="7"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -3450,8 +3803,12 @@
       <c r="K43" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L43" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E44" s="7"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -3471,8 +3828,12 @@
       <c r="K44" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L44" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E45" s="7"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -3492,8 +3853,12 @@
       <c r="K45" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L45" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E46" s="7"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -3513,8 +3878,12 @@
       <c r="K46" s="1">
         <v>1518037</v>
       </c>
-    </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>1518941.2</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E47" s="7"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -3534,8 +3903,12 @@
       <c r="K47" s="1">
         <v>960.9</v>
       </c>
-    </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>960.8</v>
+      </c>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E48" s="7"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -3555,8 +3928,12 @@
       <c r="K48" s="1">
         <v>1579.87</v>
       </c>
-    </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>1581.018</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E49" s="7"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -3576,8 +3953,12 @@
       <c r="K49" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L49" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -3596,6 +3977,10 @@
       </c>
       <c r="K50" s="1" t="s">
         <v>194</v>
+      </c>
+      <c r="L50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -3611,10 +3996,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FCC0AA-C984-4903-81D8-D871D2663DA5}">
-  <dimension ref="E7:K50"/>
+  <dimension ref="E7:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3828,7 +4213,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -3849,7 +4234,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -3869,8 +4254,12 @@
       <c r="K18" s="1">
         <v>83819</v>
       </c>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <f>AVERAGE(G18:K18)</f>
+        <v>83823.199999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E19" s="7"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -3890,8 +4279,12 @@
       <c r="K19" s="1">
         <v>960.4</v>
       </c>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f t="shared" ref="L19:L50" si="0">AVERAGE(G19:K19)</f>
+        <v>960.36</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E20" s="7"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -3911,8 +4304,12 @@
       <c r="K20" s="1">
         <v>87.28</v>
       </c>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>87.281999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E21" s="7"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -3932,8 +4329,12 @@
       <c r="K21" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -3953,8 +4354,12 @@
       <c r="K22" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E23" s="6">
         <v>1000</v>
       </c>
@@ -3976,8 +4381,12 @@
       <c r="K23" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -3997,8 +4406,12 @@
       <c r="K24" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -4018,8 +4431,12 @@
       <c r="K25" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -4039,8 +4456,12 @@
       <c r="K26" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L26" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -4060,8 +4481,12 @@
       <c r="K27" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L27" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -4081,8 +4506,12 @@
       <c r="K28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -4102,8 +4531,12 @@
       <c r="K29" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E30" s="7"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -4123,8 +4556,12 @@
       <c r="K30" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L30" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E31" s="7"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -4144,8 +4581,12 @@
       <c r="K31" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E32" s="7"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -4165,8 +4606,12 @@
       <c r="K32" s="2">
         <v>837378</v>
       </c>
-    </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>838097.4</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E33" s="7"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -4186,8 +4631,12 @@
       <c r="K33" s="2">
         <v>960.5</v>
       </c>
-    </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>960.66000000000008</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E34" s="7"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -4207,8 +4656,12 @@
       <c r="K34" s="2">
         <v>871.85</v>
       </c>
-    </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>872.43200000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E35" s="7"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -4228,8 +4681,12 @@
       <c r="K35" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -4249,8 +4706,12 @@
       <c r="K36" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="6">
         <v>4000</v>
       </c>
@@ -4272,8 +4733,12 @@
       <c r="K37" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E38" s="7"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -4293,8 +4758,12 @@
       <c r="K38" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E39" s="7"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -4314,8 +4783,12 @@
       <c r="K39" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L39" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E40" s="7"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -4335,8 +4808,12 @@
       <c r="K40" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E41" s="7"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -4356,8 +4833,12 @@
       <c r="K41" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L41" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E42" s="7"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -4377,8 +4858,12 @@
       <c r="K42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E43" s="7"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -4398,8 +4883,12 @@
       <c r="K43" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L43" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E44" s="7"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -4419,8 +4908,12 @@
       <c r="K44" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L44" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E45" s="7"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -4440,8 +4933,12 @@
       <c r="K45" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L45" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E46" s="7"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -4461,8 +4958,12 @@
       <c r="K46" s="1">
         <v>1103431</v>
       </c>
-    </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>1101629.3999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E47" s="7"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -4482,8 +4983,12 @@
       <c r="K47" s="1">
         <v>960.7</v>
       </c>
-    </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>960.66000000000008</v>
+      </c>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E48" s="7"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -4503,8 +5008,12 @@
       <c r="K48" s="1">
         <v>1148.53</v>
       </c>
-    </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>1146.7279999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E49" s="7"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -4524,8 +5033,12 @@
       <c r="K49" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L49" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -4544,6 +5057,10 @@
       </c>
       <c r="K50" s="1" t="s">
         <v>243</v>
+      </c>
+      <c r="L50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -4560,10 +5077,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33E3BDB-BD67-41A1-991C-2FB34B0212C5}">
-  <dimension ref="E7:K50"/>
+  <dimension ref="E7:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="D19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="D28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4777,7 +5294,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -4798,7 +5315,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -4818,8 +5335,12 @@
       <c r="K18" s="1">
         <v>83821</v>
       </c>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <f>AVERAGE(G18:K18)</f>
+        <v>83820.2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E19" s="7"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -4839,8 +5360,12 @@
       <c r="K19" s="1">
         <v>960.2</v>
       </c>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f t="shared" ref="L19:L50" si="0">AVERAGE(G19:K19)</f>
+        <v>960.28</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E20" s="7"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -4860,8 +5385,12 @@
       <c r="K20" s="1">
         <v>87.29</v>
       </c>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>87.28400000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E21" s="7"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -4881,8 +5410,12 @@
       <c r="K21" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -4902,8 +5435,12 @@
       <c r="K22" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E23" s="6">
         <v>1000</v>
       </c>
@@ -4925,8 +5462,12 @@
       <c r="K23" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -4946,8 +5487,12 @@
       <c r="K24" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -4967,8 +5512,12 @@
       <c r="K25" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -4988,8 +5537,12 @@
       <c r="K26" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L26" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -5009,8 +5562,12 @@
       <c r="K27" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L27" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -5030,8 +5587,12 @@
       <c r="K28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -5051,8 +5612,12 @@
       <c r="K29" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E30" s="7"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -5072,8 +5637,12 @@
       <c r="K30" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L30" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E31" s="7"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -5093,8 +5662,12 @@
       <c r="K31" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E32" s="7"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -5114,8 +5687,12 @@
       <c r="K32" s="2">
         <v>838380</v>
       </c>
-    </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>838396.2</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E33" s="7"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -5135,8 +5712,12 @@
       <c r="K33" s="2">
         <v>960.7</v>
       </c>
-    </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>960.68000000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E34" s="7"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -5156,8 +5737,12 @@
       <c r="K34" s="2">
         <v>872.68</v>
       </c>
-    </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>872.70799999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E35" s="7"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -5177,8 +5762,12 @@
       <c r="K35" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -5198,8 +5787,12 @@
       <c r="K36" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="6">
         <v>4000</v>
       </c>
@@ -5221,8 +5814,12 @@
       <c r="K37" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E38" s="7"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -5242,8 +5839,12 @@
       <c r="K38" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E39" s="7"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -5263,8 +5864,12 @@
       <c r="K39" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L39" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E40" s="7"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -5284,8 +5889,12 @@
       <c r="K40" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E41" s="7"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -5305,8 +5914,12 @@
       <c r="K41" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L41" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E42" s="7"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -5326,8 +5939,12 @@
       <c r="K42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E43" s="7"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -5347,8 +5964,12 @@
       <c r="K43" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L43" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E44" s="7"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -5368,8 +5989,12 @@
       <c r="K44" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L44" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E45" s="7"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -5389,8 +6014,12 @@
       <c r="K45" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L45" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E46" s="7"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -5410,8 +6039,12 @@
       <c r="K46" s="1">
         <v>1162136</v>
       </c>
-    </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>1170974.8</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E47" s="7"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -5431,8 +6064,12 @@
       <c r="K47" s="1">
         <v>960.9</v>
       </c>
-    </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>960.64</v>
+      </c>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E48" s="7"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -5452,8 +6089,12 @@
       <c r="K48" s="1">
         <v>1209.43</v>
       </c>
-    </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>1218.9460000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E49" s="7"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -5473,8 +6114,12 @@
       <c r="K49" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L49" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -5493,6 +6138,10 @@
       </c>
       <c r="K50" s="1" t="s">
         <v>312</v>
+      </c>
+      <c r="L50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -5509,9 +6158,1090 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DECBD8-A425-424A-AD1A-0E08D414502E}">
+  <dimension ref="E7:L50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="7" max="11" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E9" s="6">
+        <v>100</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E10" s="7"/>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E11" s="7"/>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E12" s="7"/>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E13" s="7"/>
+      <c r="F13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E14" s="7"/>
+      <c r="F14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E15" s="7"/>
+      <c r="F15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E16" s="7"/>
+      <c r="F16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="7"/>
+      <c r="F17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="7"/>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1">
+        <v>83978</v>
+      </c>
+      <c r="H18" s="1">
+        <v>83982</v>
+      </c>
+      <c r="I18" s="1">
+        <v>83984</v>
+      </c>
+      <c r="J18" s="1">
+        <v>83976</v>
+      </c>
+      <c r="K18" s="1">
+        <v>83979</v>
+      </c>
+      <c r="L18">
+        <f>AVERAGE(G18:K18)</f>
+        <v>83979.8</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="7"/>
+      <c r="F19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="H19" s="1">
+        <v>960.5</v>
+      </c>
+      <c r="I19" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="J19" s="1">
+        <v>960.5</v>
+      </c>
+      <c r="K19" s="1">
+        <v>960.5</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ref="L19:L50" si="0">AVERAGE(G19:K19)</f>
+        <v>960.54</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E20" s="7"/>
+      <c r="F20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="1">
+        <v>87.42</v>
+      </c>
+      <c r="H20" s="1">
+        <v>87.44</v>
+      </c>
+      <c r="I20" s="1">
+        <v>87.43</v>
+      </c>
+      <c r="J20" s="1">
+        <v>87.43</v>
+      </c>
+      <c r="K20" s="1">
+        <v>87.43</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>87.43</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E21" s="7"/>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="L21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E22" s="8"/>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="L22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E23" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E24" s="7"/>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E25" s="7"/>
+      <c r="F25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E26" s="7"/>
+      <c r="F26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E27" s="7"/>
+      <c r="F27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="L27" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E28" s="7"/>
+      <c r="F28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E29" s="7"/>
+      <c r="F29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="L29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E30" s="7"/>
+      <c r="F30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="L30" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E31" s="7"/>
+      <c r="F31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="L31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E32" s="7"/>
+      <c r="F32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2">
+        <v>839233</v>
+      </c>
+      <c r="H32" s="2">
+        <v>839206</v>
+      </c>
+      <c r="I32" s="2">
+        <v>839267</v>
+      </c>
+      <c r="J32" s="2">
+        <v>839275</v>
+      </c>
+      <c r="K32" s="2">
+        <v>839285</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>839253.2</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E33" s="7"/>
+      <c r="F33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="2">
+        <v>960.8</v>
+      </c>
+      <c r="H33" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="I33" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="J33" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="K33" s="2">
+        <v>960.6</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>960.7</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E34" s="7"/>
+      <c r="F34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="2">
+        <v>873.52</v>
+      </c>
+      <c r="H34" s="2">
+        <v>873.52</v>
+      </c>
+      <c r="I34" s="2">
+        <v>873.6</v>
+      </c>
+      <c r="J34" s="2">
+        <v>873.62</v>
+      </c>
+      <c r="K34" s="2">
+        <v>873.67</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>873.5859999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E35" s="7"/>
+      <c r="F35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="L35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E36" s="8"/>
+      <c r="F36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E37" s="6">
+        <v>4000</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E38" s="7"/>
+      <c r="F38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E39" s="7"/>
+      <c r="F39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E40" s="7"/>
+      <c r="F40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E41" s="7"/>
+      <c r="F41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="L41" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E42" s="7"/>
+      <c r="F42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E43" s="7"/>
+      <c r="F43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1490</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E44" s="7"/>
+      <c r="F44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1360</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E45" s="7"/>
+      <c r="F45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1380</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E46" s="7"/>
+      <c r="F46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1550259</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1550927</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1553287</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1549793</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1549059</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>1550665</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E47" s="7"/>
+      <c r="F47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="H47" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="I47" s="1">
+        <v>960.5</v>
+      </c>
+      <c r="J47" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="K47" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>960.7</v>
+      </c>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E48" s="7"/>
+      <c r="F48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1613.29</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1613.96</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1617.09</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1613.39</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1612.53</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>1614.0520000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E49" s="7"/>
+      <c r="F49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L49" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E50" s="8"/>
+      <c r="F50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="L50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="E9:E22"/>
+    <mergeCell ref="E23:E36"/>
+    <mergeCell ref="E37:E50"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491B2463-697C-4FC5-A88C-76F5DBC70B85}">
   <dimension ref="E7:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
@@ -5647,21 +7377,17 @@
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>332</v>
-      </c>
+      <c r="G13" s="1">
+        <v>2.36</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2.48</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E14" s="7"/>
@@ -5677,75 +7403,59 @@
       <c r="I14" s="1">
         <v>0</v>
       </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E15" s="7"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>333</v>
-      </c>
+      <c r="G15" s="1">
+        <v>138.22999999999999</v>
+      </c>
+      <c r="H15" s="1">
+        <v>146.03</v>
+      </c>
+      <c r="I15" s="1">
+        <v>140.82</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E16" s="7"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>334</v>
-      </c>
+      <c r="G16" s="1">
+        <v>3.79</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3.88</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3.96</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>335</v>
-      </c>
+      <c r="G17" s="1">
+        <v>4.43</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4.49</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E18" s="7"/>
@@ -5753,20 +7463,16 @@
         <v>6</v>
       </c>
       <c r="G18" s="1">
-        <v>83978</v>
+        <v>83874</v>
       </c>
       <c r="H18" s="1">
-        <v>83982</v>
+        <v>83871</v>
       </c>
       <c r="I18" s="1">
-        <v>83984</v>
-      </c>
-      <c r="J18" s="1">
-        <v>83976</v>
-      </c>
-      <c r="K18" s="1">
-        <v>83979</v>
-      </c>
+        <v>83866</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E19" s="7"/>
@@ -5774,20 +7480,16 @@
         <v>7</v>
       </c>
       <c r="G19" s="1">
-        <v>960.6</v>
+        <v>960.9</v>
       </c>
       <c r="H19" s="1">
-        <v>960.5</v>
+        <v>960.7</v>
       </c>
       <c r="I19" s="1">
-        <v>960.6</v>
-      </c>
-      <c r="J19" s="1">
-        <v>960.5</v>
-      </c>
-      <c r="K19" s="1">
-        <v>960.5</v>
-      </c>
+        <v>960.9</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E20" s="7"/>
@@ -5795,20 +7497,16 @@
         <v>8</v>
       </c>
       <c r="G20" s="1">
-        <v>87.42</v>
+        <v>87.29</v>
       </c>
       <c r="H20" s="1">
-        <v>87.44</v>
+        <v>87.3</v>
       </c>
       <c r="I20" s="1">
-        <v>87.43</v>
-      </c>
-      <c r="J20" s="1">
-        <v>87.43</v>
-      </c>
-      <c r="K20" s="1">
-        <v>87.43</v>
-      </c>
+        <v>87.28</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E21" s="7"/>
@@ -5816,20 +7514,16 @@
         <v>11</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>324</v>
+        <v>201</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>324</v>
+        <v>201</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>324</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
     </row>
     <row r="22" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
@@ -5837,20 +7531,16 @@
         <v>9</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>325</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E23" s="6">
@@ -5943,21 +7633,17 @@
       <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>350</v>
-      </c>
+      <c r="G27" s="2">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1.77</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1.81</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E28" s="7"/>
@@ -5973,75 +7659,59 @@
       <c r="I28" s="2">
         <v>0</v>
       </c>
-      <c r="J28" s="2">
-        <v>0</v>
-      </c>
-      <c r="K28" s="2">
-        <v>0</v>
-      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>351</v>
-      </c>
+      <c r="G29" s="2">
+        <v>94.7</v>
+      </c>
+      <c r="H29" s="2">
+        <v>140.75</v>
+      </c>
+      <c r="I29" s="2">
+        <v>50.15</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
     </row>
     <row r="30" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E30" s="7"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>352</v>
-      </c>
+      <c r="G30" s="2">
+        <v>3.91</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2.97</v>
+      </c>
+      <c r="I30" s="2">
+        <v>3.08</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E31" s="7"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>353</v>
-      </c>
+      <c r="G31" s="2">
+        <v>5.17</v>
+      </c>
+      <c r="H31" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="I31" s="2">
+        <v>3.69</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
     </row>
     <row r="32" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E32" s="7"/>
@@ -6049,20 +7719,16 @@
         <v>6</v>
       </c>
       <c r="G32" s="2">
-        <v>839233</v>
+        <v>838313</v>
       </c>
       <c r="H32" s="2">
-        <v>839206</v>
+        <v>838742</v>
       </c>
       <c r="I32" s="2">
-        <v>839267</v>
-      </c>
-      <c r="J32" s="2">
-        <v>839275</v>
-      </c>
-      <c r="K32" s="2">
-        <v>839285</v>
-      </c>
+        <v>838710</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
     </row>
     <row r="33" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E33" s="7"/>
@@ -6070,20 +7736,16 @@
         <v>7</v>
       </c>
       <c r="G33" s="2">
-        <v>960.8</v>
+        <v>960.6</v>
       </c>
       <c r="H33" s="2">
-        <v>960.7</v>
+        <v>960.5</v>
       </c>
       <c r="I33" s="2">
-        <v>960.7</v>
-      </c>
-      <c r="J33" s="2">
-        <v>960.7</v>
-      </c>
-      <c r="K33" s="2">
-        <v>960.6</v>
-      </c>
+        <v>960.5</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
     </row>
     <row r="34" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E34" s="7"/>
@@ -6091,20 +7753,16 @@
         <v>8</v>
       </c>
       <c r="G34" s="2">
-        <v>873.52</v>
+        <v>872.66</v>
       </c>
       <c r="H34" s="2">
-        <v>873.52</v>
+        <v>873.22</v>
       </c>
       <c r="I34" s="2">
-        <v>873.6</v>
-      </c>
-      <c r="J34" s="2">
-        <v>873.62</v>
-      </c>
-      <c r="K34" s="2">
-        <v>873.67</v>
-      </c>
+        <v>873.2</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
     </row>
     <row r="35" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E35" s="7"/>
@@ -6112,20 +7770,16 @@
         <v>11</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>339</v>
+        <v>179</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>339</v>
+        <v>179</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>339</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
     </row>
     <row r="36" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
@@ -6133,20 +7787,16 @@
         <v>9</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>340</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
     </row>
     <row r="37" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E37" s="6">
@@ -6239,21 +7889,17 @@
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>362</v>
-      </c>
+      <c r="G41" s="1">
+        <v>1600</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1610</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
     </row>
     <row r="42" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E42" s="7"/>
@@ -6269,75 +7915,59 @@
       <c r="I42" s="1">
         <v>0</v>
       </c>
-      <c r="J42" s="1">
-        <v>0</v>
-      </c>
-      <c r="K42" s="1">
-        <v>0</v>
-      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
     </row>
     <row r="43" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E43" s="7"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>355</v>
+      <c r="G43" s="1">
+        <v>2210</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2100</v>
       </c>
       <c r="I43" s="1">
-        <v>1490</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>355</v>
-      </c>
+        <v>2280</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
     </row>
     <row r="44" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E44" s="7"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>356</v>
+      <c r="G44" s="1">
+        <v>1880</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1880</v>
       </c>
       <c r="I44" s="1">
-        <v>1360</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>356</v>
-      </c>
+        <v>1890</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
     </row>
     <row r="45" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E45" s="7"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>357</v>
+      <c r="G45" s="1">
+        <v>1900</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1900</v>
       </c>
       <c r="I45" s="1">
-        <v>1380</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>357</v>
-      </c>
+        <v>1900</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
     </row>
     <row r="46" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E46" s="7"/>
@@ -6345,20 +7975,16 @@
         <v>6</v>
       </c>
       <c r="G46" s="1">
-        <v>1550259</v>
+        <v>1288467</v>
       </c>
       <c r="H46" s="1">
-        <v>1550927</v>
+        <v>1287176</v>
       </c>
       <c r="I46" s="1">
-        <v>1553287</v>
-      </c>
-      <c r="J46" s="1">
-        <v>1549793</v>
-      </c>
-      <c r="K46" s="1">
-        <v>1549059</v>
-      </c>
+        <v>1284634</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
     </row>
     <row r="47" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E47" s="7"/>
@@ -6366,20 +7992,16 @@
         <v>7</v>
       </c>
       <c r="G47" s="1">
-        <v>960.9</v>
+        <v>960.7</v>
       </c>
       <c r="H47" s="1">
         <v>960.9</v>
       </c>
       <c r="I47" s="1">
-        <v>960.5</v>
-      </c>
-      <c r="J47" s="1">
-        <v>960.6</v>
-      </c>
-      <c r="K47" s="1">
-        <v>960.6</v>
-      </c>
+        <v>960.9</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
     </row>
     <row r="48" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E48" s="7"/>
@@ -6387,20 +8009,16 @@
         <v>8</v>
       </c>
       <c r="G48" s="1">
-        <v>1613.29</v>
+        <v>1341.12</v>
       </c>
       <c r="H48" s="1">
-        <v>1613.96</v>
+        <v>1339.48</v>
       </c>
       <c r="I48" s="1">
-        <v>1617.09</v>
-      </c>
-      <c r="J48" s="1">
-        <v>1613.39</v>
-      </c>
-      <c r="K48" s="1">
-        <v>1612.53</v>
-      </c>
+        <v>1336.97</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
     </row>
     <row r="49" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E49" s="7"/>
@@ -6408,20 +8026,16 @@
         <v>11</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>243</v>
+        <v>365</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>243</v>
+        <v>365</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>243</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
     </row>
     <row r="50" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
@@ -6429,20 +8043,845 @@
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>358</v>
+        <v>179</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>358</v>
+        <v>179</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>361</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="E9:E22"/>
+    <mergeCell ref="E23:E36"/>
+    <mergeCell ref="E37:E50"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB6DA92-7223-446A-BEE3-0FF2B848B2A6}">
+  <dimension ref="E7:K50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="7" max="11" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E9" s="6">
+        <v>100</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E10" s="7"/>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E11" s="7"/>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E12" s="7"/>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E13" s="7"/>
+      <c r="F13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.41</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2.48</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E14" s="7"/>
+      <c r="F14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E15" s="7"/>
+      <c r="F15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>136.94</v>
+      </c>
+      <c r="H15" s="1">
+        <v>134.30000000000001</v>
+      </c>
+      <c r="I15" s="1">
+        <v>148.28</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E16" s="7"/>
+      <c r="F16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3.82</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3.92</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E17" s="7"/>
+      <c r="F17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4.58</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4.66</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E18" s="7"/>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1">
+        <v>83871</v>
+      </c>
+      <c r="H18" s="1">
+        <v>83874</v>
+      </c>
+      <c r="I18" s="1">
+        <v>83869</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E19" s="7"/>
+      <c r="F19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="H19" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="I19" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E20" s="7"/>
+      <c r="F20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="1">
+        <v>87.3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>87.3</v>
+      </c>
+      <c r="I20" s="1">
+        <v>87.29</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E21" s="7"/>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E22" s="8"/>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E23" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E24" s="7"/>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E25" s="7"/>
+      <c r="F25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E26" s="7"/>
+      <c r="F26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E27" s="7"/>
+      <c r="F27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E28" s="7"/>
+      <c r="F28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E29" s="7"/>
+      <c r="F29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="2">
+        <v>133.53</v>
+      </c>
+      <c r="H29" s="2">
+        <v>99.95</v>
+      </c>
+      <c r="I29" s="2">
+        <v>150.5</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E30" s="7"/>
+      <c r="F30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2.57</v>
+      </c>
+      <c r="H30" s="2">
+        <v>3.95</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2.57</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E31" s="7"/>
+      <c r="F31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2">
+        <v>3.07</v>
+      </c>
+      <c r="H31" s="2">
+        <v>5.19</v>
+      </c>
+      <c r="I31" s="2">
+        <v>3.06</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E32" s="7"/>
+      <c r="F32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2">
+        <v>838964</v>
+      </c>
+      <c r="H32" s="2">
+        <v>838358</v>
+      </c>
+      <c r="I32" s="2">
+        <v>838980</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E33" s="7"/>
+      <c r="F33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="2">
+        <v>960.8</v>
+      </c>
+      <c r="H33" s="2">
+        <v>960.4</v>
+      </c>
+      <c r="I33" s="2">
+        <v>960.8</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E34" s="7"/>
+      <c r="F34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="2">
+        <v>873.15</v>
+      </c>
+      <c r="H34" s="2">
+        <v>873.96</v>
+      </c>
+      <c r="I34" s="2">
+        <v>873.21</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E35" s="7"/>
+      <c r="F35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E36" s="8"/>
+      <c r="F36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E37" s="6">
+        <v>4000</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E38" s="7"/>
+      <c r="F38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E39" s="7"/>
+      <c r="F39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E40" s="7"/>
+      <c r="F40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E41" s="7"/>
+      <c r="F41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1250</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1250</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1250</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E42" s="7"/>
+      <c r="F42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E43" s="7"/>
+      <c r="F43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1710</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1690</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1660</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E44" s="7"/>
+      <c r="F44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1470</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1470</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1470</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E45" s="7"/>
+      <c r="F45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1490</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1480</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1480</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E46" s="7"/>
+      <c r="F46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1491809</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1493840</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1494207</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E47" s="7"/>
+      <c r="F47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="H47" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="I47" s="1">
+        <v>960.5</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E48" s="7"/>
+      <c r="F48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1552.6</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1555.18</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1555.74</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E49" s="7"/>
+      <c r="F49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E50" s="8"/>
+      <c r="F50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Wyniki 3/S3.xlsx
+++ b/Wyniki 3/S3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE5978A-B942-44AD-A6FF-C7114256C688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524AA1EA-6C92-413A-922E-47DA964E0528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REST" sheetId="1" r:id="rId1"/>
@@ -1488,7 +1488,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>537519</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>31751</xdr:rowOff>
+      <xdr:rowOff>34926</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1535,9 +1535,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>537519</xdr:colOff>
+      <xdr:colOff>537520</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>31751</xdr:rowOff>
+      <xdr:rowOff>34926</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6160,7 +6160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DECBD8-A425-424A-AD1A-0E08D414502E}">
   <dimension ref="E7:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
@@ -7239,10 +7239,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491B2463-697C-4FC5-A88C-76F5DBC70B85}">
-  <dimension ref="E7:K50"/>
+  <dimension ref="E7:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O52" sqref="O52"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7252,7 +7252,7 @@
     <col min="7" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
@@ -7263,7 +7263,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E9" s="6">
         <v>100</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -7330,7 +7330,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -7351,7 +7351,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -7372,7 +7372,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E13" s="7"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -7388,8 +7388,12 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f>AVERAGE(G13:I13)</f>
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E14" s="7"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -7405,8 +7409,12 @@
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f t="shared" ref="L14:L50" si="0">AVERAGE(G14:I14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E15" s="7"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -7422,8 +7430,12 @@
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>141.69333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E16" s="7"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -7439,8 +7451,12 @@
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>3.8766666666666665</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -7456,8 +7472,12 @@
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>4.5100000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -7473,8 +7493,12 @@
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>83870.333333333328</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E19" s="7"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -7490,8 +7514,12 @@
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>960.83333333333337</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E20" s="7"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -7507,8 +7535,12 @@
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>87.29</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E21" s="7"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -7524,8 +7556,12 @@
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -7541,8 +7577,12 @@
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E23" s="6">
         <v>1000</v>
       </c>
@@ -7564,8 +7604,12 @@
       <c r="K23" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -7585,8 +7629,12 @@
       <c r="K24" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -7606,8 +7654,12 @@
       <c r="K25" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -7627,8 +7679,12 @@
       <c r="K26" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L26" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -7644,8 +7700,12 @@
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>1.9333333333333336</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -7661,8 +7721,12 @@
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -7678,8 +7742,12 @@
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>95.199999999999989</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E30" s="7"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -7695,8 +7763,12 @@
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>3.3200000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E31" s="7"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -7712,8 +7784,12 @@
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>4.1533333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E32" s="7"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -7729,8 +7805,12 @@
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>838588.33333333337</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E33" s="7"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -7746,8 +7826,12 @@
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>960.5333333333333</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E34" s="7"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -7763,8 +7847,12 @@
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>873.02666666666664</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E35" s="7"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -7780,8 +7868,12 @@
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -7797,8 +7889,12 @@
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="6">
         <v>4000</v>
       </c>
@@ -7820,8 +7916,12 @@
       <c r="K37" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E38" s="7"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -7841,8 +7941,12 @@
       <c r="K38" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E39" s="7"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -7862,8 +7966,12 @@
       <c r="K39" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L39" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E40" s="7"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -7883,8 +7991,12 @@
       <c r="K40" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E41" s="7"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -7900,8 +8012,12 @@
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>1606.6666666666667</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E42" s="7"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -7917,8 +8033,12 @@
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E43" s="7"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -7934,8 +8054,12 @@
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>2196.6666666666665</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E44" s="7"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -7951,8 +8075,12 @@
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>1883.3333333333333</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E45" s="7"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -7968,8 +8096,12 @@
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E46" s="7"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -7985,8 +8117,12 @@
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>1286759</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E47" s="7"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -8002,8 +8138,12 @@
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>960.83333333333337</v>
+      </c>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E48" s="7"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -8019,8 +8159,12 @@
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>1339.1899999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E49" s="7"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -8036,8 +8180,12 @@
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L49" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -8053,6 +8201,10 @@
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
+      <c r="L50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8068,10 +8220,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB6DA92-7223-446A-BEE3-0FF2B848B2A6}">
-  <dimension ref="E7:K50"/>
+  <dimension ref="E7:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8079,9 +8231,10 @@
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
     <col min="6" max="6" width="32.5703125" customWidth="1"/>
     <col min="7" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
@@ -8092,7 +8245,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -8115,7 +8268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E9" s="6">
         <v>100</v>
       </c>
@@ -8138,7 +8291,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -8159,7 +8312,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -8180,7 +8333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -8201,7 +8354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E13" s="7"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -8217,8 +8370,12 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f>AVERAGE(G13:I13)</f>
+        <v>2.4466666666666668</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E14" s="7"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -8234,8 +8391,12 @@
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f t="shared" ref="L14:L50" si="0">AVERAGE(G14:I14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E15" s="7"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -8251,8 +8412,12 @@
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>139.84</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E16" s="7"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -8268,8 +8433,12 @@
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -8285,8 +8454,12 @@
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>4.543333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -8302,8 +8475,12 @@
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>83871.333333333328</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E19" s="7"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -8319,8 +8496,12 @@
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>960.73333333333323</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E20" s="7"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -8336,8 +8517,12 @@
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>87.296666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E21" s="7"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -8353,8 +8538,12 @@
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -8370,8 +8559,12 @@
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E23" s="6">
         <v>1000</v>
       </c>
@@ -8393,8 +8586,12 @@
       <c r="K23" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -8414,8 +8611,12 @@
       <c r="K24" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -8435,8 +8636,12 @@
       <c r="K25" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -8456,8 +8661,12 @@
       <c r="K26" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L26" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -8473,8 +8682,12 @@
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>1.7466666666666668</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -8490,8 +8703,12 @@
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -8507,8 +8724,12 @@
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>127.99333333333334</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E30" s="7"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -8524,8 +8745,12 @@
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E31" s="7"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -8541,8 +8766,12 @@
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>3.7733333333333334</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E32" s="7"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -8558,8 +8787,12 @@
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>838767.33333333337</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E33" s="7"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -8575,8 +8808,12 @@
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>960.66666666666663</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E34" s="7"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -8592,8 +8829,12 @@
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>873.44</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E35" s="7"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -8609,8 +8850,12 @@
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -8626,8 +8871,12 @@
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="6">
         <v>4000</v>
       </c>
@@ -8649,8 +8898,12 @@
       <c r="K37" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E38" s="7"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -8670,8 +8923,12 @@
       <c r="K38" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E39" s="7"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -8691,8 +8948,12 @@
       <c r="K39" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L39" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E40" s="7"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -8712,8 +8973,12 @@
       <c r="K40" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E41" s="7"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -8729,8 +8994,12 @@
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E42" s="7"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -8746,8 +9015,12 @@
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E43" s="7"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -8763,8 +9036,12 @@
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>1686.6666666666667</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E44" s="7"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -8780,8 +9057,12 @@
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E45" s="7"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -8797,8 +9078,12 @@
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>1483.3333333333333</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E46" s="7"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -8814,8 +9099,12 @@
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>1493285.3333333333</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E47" s="7"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -8831,8 +9120,12 @@
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>960.63333333333333</v>
+      </c>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E48" s="7"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -8848,8 +9141,12 @@
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>1554.5066666666664</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E49" s="7"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -8865,8 +9162,12 @@
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L49" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -8882,6 +9183,10 @@
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
+      <c r="L50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Wyniki 3/S3.xlsx
+++ b/Wyniki 3/S3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524AA1EA-6C92-413A-922E-47DA964E0528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAF8300-0C53-40F8-99AE-EDD027EF94DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REST" sheetId="1" r:id="rId1"/>
@@ -7241,7 +7241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491B2463-697C-4FC5-A88C-76F5DBC70B85}">
   <dimension ref="E7:L50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
@@ -8223,7 +8223,7 @@
   <dimension ref="E7:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="R52" sqref="R52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Wyniki 3/S3.xlsx
+++ b/Wyniki 3/S3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAF8300-0C53-40F8-99AE-EDD027EF94DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F51325-78B5-4A0E-9898-EE5CD7998F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REST" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="382">
   <si>
     <t>Maksymalna liczba użytkowników</t>
   </si>
@@ -1155,6 +1155,39 @@
   </si>
   <si>
     <t>832MB</t>
+  </si>
+  <si>
+    <t>1,9GB</t>
+  </si>
+  <si>
+    <t>1,2GB</t>
+  </si>
+  <si>
+    <t>939MB</t>
+  </si>
+  <si>
+    <t>742MB</t>
+  </si>
+  <si>
+    <t>743MB</t>
+  </si>
+  <si>
+    <t>925MB</t>
+  </si>
+  <si>
+    <t>732MB</t>
+  </si>
+  <si>
+    <t>940MB</t>
+  </si>
+  <si>
+    <t>744MB</t>
+  </si>
+  <si>
+    <t>930MB</t>
+  </si>
+  <si>
+    <t>736MB</t>
   </si>
 </sst>
 </file>
@@ -6160,8 +6193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DECBD8-A425-424A-AD1A-0E08D414502E}">
   <dimension ref="E7:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7239,10 +7272,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491B2463-697C-4FC5-A88C-76F5DBC70B85}">
-  <dimension ref="E7:L50"/>
+  <dimension ref="E7:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7896,7 +7929,7 @@
     </row>
     <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="6">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
@@ -8002,19 +8035,23 @@
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <v>1600</v>
+        <v>431.02</v>
       </c>
       <c r="H41" s="1">
-        <v>1610</v>
+        <v>435.56</v>
       </c>
       <c r="I41" s="1">
-        <v>1610</v>
-      </c>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+        <v>457.53</v>
+      </c>
+      <c r="J41" s="1">
+        <v>436.85</v>
+      </c>
+      <c r="K41" s="1">
+        <v>456.26</v>
+      </c>
       <c r="L41">
-        <f t="shared" si="0"/>
-        <v>1606.6666666666667</v>
+        <f t="shared" ref="L41:L48" si="1">AVERAGE(G41:K41)</f>
+        <v>443.44400000000007</v>
       </c>
     </row>
     <row r="42" spans="5:12" x14ac:dyDescent="0.25">
@@ -8031,10 +8068,14 @@
       <c r="I42" s="1">
         <v>0</v>
       </c>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
       <c r="L42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8044,19 +8085,23 @@
         <v>3</v>
       </c>
       <c r="G43" s="1">
-        <v>2210</v>
+        <v>660.44</v>
       </c>
       <c r="H43" s="1">
-        <v>2100</v>
+        <v>712.19</v>
       </c>
       <c r="I43" s="1">
-        <v>2280</v>
-      </c>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+        <v>709.93</v>
+      </c>
+      <c r="J43" s="1">
+        <v>778.11</v>
+      </c>
+      <c r="K43" s="1">
+        <v>683.08</v>
+      </c>
       <c r="L43">
-        <f t="shared" si="0"/>
-        <v>2196.6666666666665</v>
+        <f t="shared" si="1"/>
+        <v>708.75</v>
       </c>
     </row>
     <row r="44" spans="5:12" x14ac:dyDescent="0.25">
@@ -8065,19 +8110,23 @@
         <v>4</v>
       </c>
       <c r="G44" s="1">
-        <v>1880</v>
+        <v>533.52</v>
       </c>
       <c r="H44" s="1">
-        <v>1880</v>
+        <v>537.61</v>
       </c>
       <c r="I44" s="1">
-        <v>1890</v>
-      </c>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+        <v>564.34</v>
+      </c>
+      <c r="J44" s="1">
+        <v>539.5</v>
+      </c>
+      <c r="K44" s="1">
+        <v>562.35</v>
+      </c>
       <c r="L44">
-        <f t="shared" si="0"/>
-        <v>1883.3333333333333</v>
+        <f t="shared" si="1"/>
+        <v>547.46400000000006</v>
       </c>
     </row>
     <row r="45" spans="5:12" x14ac:dyDescent="0.25">
@@ -8086,19 +8135,23 @@
         <v>5</v>
       </c>
       <c r="G45" s="1">
-        <v>1900</v>
+        <v>544.97</v>
       </c>
       <c r="H45" s="1">
-        <v>1900</v>
+        <v>549.79999999999995</v>
       </c>
       <c r="I45" s="1">
-        <v>1900</v>
-      </c>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+        <v>575.96</v>
+      </c>
+      <c r="J45" s="1">
+        <v>552.32000000000005</v>
+      </c>
+      <c r="K45" s="1">
+        <v>573.71</v>
+      </c>
       <c r="L45">
-        <f t="shared" si="0"/>
-        <v>1900</v>
+        <f t="shared" si="1"/>
+        <v>559.35200000000009</v>
       </c>
     </row>
     <row r="46" spans="5:12" x14ac:dyDescent="0.25">
@@ -8107,19 +8160,23 @@
         <v>6</v>
       </c>
       <c r="G46" s="1">
-        <v>1288467</v>
+        <v>1174508</v>
       </c>
       <c r="H46" s="1">
-        <v>1287176</v>
+        <v>1170812</v>
       </c>
       <c r="I46" s="1">
-        <v>1284634</v>
-      </c>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+        <v>1153158</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1169733</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1154157</v>
+      </c>
       <c r="L46">
-        <f t="shared" si="0"/>
-        <v>1286759</v>
+        <f t="shared" si="1"/>
+        <v>1164473.6000000001</v>
       </c>
     </row>
     <row r="47" spans="5:12" x14ac:dyDescent="0.25">
@@ -8128,19 +8185,23 @@
         <v>7</v>
       </c>
       <c r="G47" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="H47" s="1">
+        <v>960.5</v>
+      </c>
+      <c r="I47" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="J47" s="1">
         <v>960.7</v>
       </c>
-      <c r="H47" s="1">
-        <v>960.9</v>
-      </c>
-      <c r="I47" s="1">
-        <v>960.9</v>
-      </c>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
+      <c r="K47" s="1">
+        <v>960.8</v>
+      </c>
       <c r="L47">
-        <f t="shared" si="0"/>
-        <v>960.83333333333337</v>
+        <f t="shared" si="1"/>
+        <v>960.64</v>
       </c>
     </row>
     <row r="48" spans="5:12" x14ac:dyDescent="0.25">
@@ -8149,19 +8210,23 @@
         <v>8</v>
       </c>
       <c r="G48" s="1">
-        <v>1341.12</v>
+        <v>1222.69</v>
       </c>
       <c r="H48" s="1">
-        <v>1339.48</v>
+        <v>1218.98</v>
       </c>
       <c r="I48" s="1">
-        <v>1336.97</v>
-      </c>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+        <v>1200.46</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1217.58</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1201.24</v>
+      </c>
       <c r="L48">
-        <f t="shared" si="0"/>
-        <v>1339.1899999999998</v>
+        <f t="shared" si="1"/>
+        <v>1212.19</v>
       </c>
     </row>
     <row r="49" spans="5:12" x14ac:dyDescent="0.25">
@@ -8170,16 +8235,20 @@
         <v>11</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+        <v>242</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="L49" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -8191,27 +8260,288 @@
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="L50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E51" s="6">
+        <v>4000</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E52" s="7"/>
+      <c r="F52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E53" s="7"/>
+      <c r="F53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E54" s="7"/>
+      <c r="F54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E55" s="7"/>
+      <c r="F55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1600</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1610</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E56" s="7"/>
+      <c r="F56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E57" s="7"/>
+      <c r="F57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1">
+        <v>2210</v>
+      </c>
+      <c r="H57" s="1">
+        <v>2100</v>
+      </c>
+      <c r="I57" s="1">
+        <v>2280</v>
+      </c>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E58" s="7"/>
+      <c r="F58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1880</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1880</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1890</v>
+      </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E59" s="7"/>
+      <c r="F59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1900</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1900</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1900</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E60" s="7"/>
+      <c r="F60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1288467</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1287176</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1284634</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E61" s="7"/>
+      <c r="F61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="H61" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="I61" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E62" s="7"/>
+      <c r="F62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1341.12</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1339.48</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1336.97</v>
+      </c>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E63" s="7"/>
+      <c r="F63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E64" s="8"/>
+      <c r="F64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I64" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E7:K7"/>
     <mergeCell ref="E9:E22"/>
     <mergeCell ref="E23:E36"/>
     <mergeCell ref="E37:E50"/>
+    <mergeCell ref="E51:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8220,10 +8550,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB6DA92-7223-446A-BEE3-0FF2B848B2A6}">
-  <dimension ref="E7:L50"/>
+  <dimension ref="E7:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R52" sqref="R52"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8878,7 +9208,7 @@
     </row>
     <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="6">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
@@ -8984,19 +9314,23 @@
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <v>1250</v>
+        <v>260.91000000000003</v>
       </c>
       <c r="H41" s="1">
-        <v>1250</v>
+        <v>259.77</v>
       </c>
       <c r="I41" s="1">
-        <v>1250</v>
-      </c>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+        <v>278.89999999999998</v>
+      </c>
+      <c r="J41" s="1">
+        <v>259.13</v>
+      </c>
+      <c r="K41" s="1">
+        <v>271.83</v>
+      </c>
       <c r="L41">
-        <f t="shared" si="0"/>
-        <v>1250</v>
+        <f t="shared" ref="L41:L48" si="1">AVERAGE(G41:K41)</f>
+        <v>266.108</v>
       </c>
     </row>
     <row r="42" spans="5:12" x14ac:dyDescent="0.25">
@@ -9013,10 +9347,14 @@
       <c r="I42" s="1">
         <v>0</v>
       </c>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
       <c r="L42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9026,19 +9364,23 @@
         <v>3</v>
       </c>
       <c r="G43" s="1">
-        <v>1710</v>
+        <v>522.20000000000005</v>
       </c>
       <c r="H43" s="1">
-        <v>1690</v>
+        <v>606</v>
       </c>
       <c r="I43" s="1">
-        <v>1660</v>
-      </c>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+        <v>557.95000000000005</v>
+      </c>
+      <c r="J43" s="1">
+        <v>425.83</v>
+      </c>
+      <c r="K43" s="1">
+        <v>769.48</v>
+      </c>
       <c r="L43">
-        <f t="shared" si="0"/>
-        <v>1686.6666666666667</v>
+        <f t="shared" si="1"/>
+        <v>576.29200000000003</v>
       </c>
     </row>
     <row r="44" spans="5:12" x14ac:dyDescent="0.25">
@@ -9047,19 +9389,23 @@
         <v>4</v>
       </c>
       <c r="G44" s="1">
-        <v>1470</v>
+        <v>335.83</v>
       </c>
       <c r="H44" s="1">
-        <v>1470</v>
+        <v>335.02</v>
       </c>
       <c r="I44" s="1">
-        <v>1470</v>
-      </c>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+        <v>355.89</v>
+      </c>
+      <c r="J44" s="1">
+        <v>333.29</v>
+      </c>
+      <c r="K44" s="1">
+        <v>358.31</v>
+      </c>
       <c r="L44">
-        <f t="shared" si="0"/>
-        <v>1470</v>
+        <f t="shared" si="1"/>
+        <v>343.66799999999995</v>
       </c>
     </row>
     <row r="45" spans="5:12" x14ac:dyDescent="0.25">
@@ -9068,19 +9414,23 @@
         <v>5</v>
       </c>
       <c r="G45" s="1">
-        <v>1490</v>
+        <v>348.74</v>
       </c>
       <c r="H45" s="1">
-        <v>1480</v>
+        <v>346.97</v>
       </c>
       <c r="I45" s="1">
-        <v>1480</v>
-      </c>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+        <v>366.54</v>
+      </c>
+      <c r="J45" s="1">
+        <v>344.59</v>
+      </c>
+      <c r="K45" s="1">
+        <v>388.16</v>
+      </c>
       <c r="L45">
-        <f t="shared" si="0"/>
-        <v>1483.3333333333333</v>
+        <f t="shared" si="1"/>
+        <v>359</v>
       </c>
     </row>
     <row r="46" spans="5:12" x14ac:dyDescent="0.25">
@@ -9089,19 +9439,23 @@
         <v>6</v>
       </c>
       <c r="G46" s="1">
-        <v>1491809</v>
+        <v>1332889</v>
       </c>
       <c r="H46" s="1">
-        <v>1493840</v>
+        <v>1334090</v>
       </c>
       <c r="I46" s="1">
-        <v>1494207</v>
-      </c>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+        <v>1314138</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1334767</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1321435</v>
+      </c>
       <c r="L46">
-        <f t="shared" si="0"/>
-        <v>1493285.3333333333</v>
+        <f t="shared" si="1"/>
+        <v>1327463.8</v>
       </c>
     </row>
     <row r="47" spans="5:12" x14ac:dyDescent="0.25">
@@ -9110,19 +9464,23 @@
         <v>7</v>
       </c>
       <c r="G47" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="H47" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="I47" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="J47" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="K47" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="1"/>
         <v>960.8</v>
-      </c>
-      <c r="H47" s="1">
-        <v>960.6</v>
-      </c>
-      <c r="I47" s="1">
-        <v>960.5</v>
-      </c>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47">
-        <f t="shared" si="0"/>
-        <v>960.63333333333333</v>
       </c>
     </row>
     <row r="48" spans="5:12" x14ac:dyDescent="0.25">
@@ -9131,19 +9489,23 @@
         <v>8</v>
       </c>
       <c r="G48" s="1">
-        <v>1552.6</v>
+        <v>1387.07</v>
       </c>
       <c r="H48" s="1">
-        <v>1555.18</v>
+        <v>1388.32</v>
       </c>
       <c r="I48" s="1">
-        <v>1555.74</v>
-      </c>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+        <v>1368.1</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1389.03</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1375.45</v>
+      </c>
       <c r="L48">
-        <f t="shared" si="0"/>
-        <v>1554.5066666666664</v>
+        <f t="shared" si="1"/>
+        <v>1381.5939999999998</v>
       </c>
     </row>
     <row r="49" spans="5:12" x14ac:dyDescent="0.25">
@@ -9152,16 +9514,20 @@
         <v>11</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>243</v>
+        <v>373</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>243</v>
+        <v>373</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+        <v>376</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="L49" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -9173,27 +9539,288 @@
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="L50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E51" s="6">
+        <v>4000</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E52" s="7"/>
+      <c r="F52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E53" s="7"/>
+      <c r="F53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E54" s="7"/>
+      <c r="F54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E55" s="7"/>
+      <c r="F55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1250</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1250</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1250</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E56" s="7"/>
+      <c r="F56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E57" s="7"/>
+      <c r="F57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1710</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1690</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1660</v>
+      </c>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E58" s="7"/>
+      <c r="F58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1470</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1470</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1470</v>
+      </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E59" s="7"/>
+      <c r="F59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1490</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1480</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1480</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E60" s="7"/>
+      <c r="F60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1491809</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1493840</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1494207</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E61" s="7"/>
+      <c r="F61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="H61" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="I61" s="1">
+        <v>960.5</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E62" s="7"/>
+      <c r="F62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1552.6</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1555.18</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1555.74</v>
+      </c>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E63" s="7"/>
+      <c r="F63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E64" s="8"/>
+      <c r="F64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I64" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E7:K7"/>
     <mergeCell ref="E9:E22"/>
     <mergeCell ref="E23:E36"/>
     <mergeCell ref="E37:E50"/>
+    <mergeCell ref="E51:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Wyniki 3/S3.xlsx
+++ b/Wyniki 3/S3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F51325-78B5-4A0E-9898-EE5CD7998F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB502B2-7123-4E3B-A79D-85E49A19B82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REST" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="400">
   <si>
     <t>Maksymalna liczba użytkowników</t>
   </si>
@@ -1188,6 +1188,60 @@
   </si>
   <si>
     <t>736MB</t>
+  </si>
+  <si>
+    <t>797MB</t>
+  </si>
+  <si>
+    <t>632MB</t>
+  </si>
+  <si>
+    <t>798MB</t>
+  </si>
+  <si>
+    <t>795MB</t>
+  </si>
+  <si>
+    <t>630MB</t>
+  </si>
+  <si>
+    <t>800MB</t>
+  </si>
+  <si>
+    <t>634MB</t>
+  </si>
+  <si>
+    <t>878MB</t>
+  </si>
+  <si>
+    <t>871MB</t>
+  </si>
+  <si>
+    <t>880MB</t>
+  </si>
+  <si>
+    <t>1,4GB</t>
+  </si>
+  <si>
+    <t>272MB</t>
+  </si>
+  <si>
+    <t>274MB</t>
+  </si>
+  <si>
+    <t>271MB</t>
+  </si>
+  <si>
+    <t>2GB</t>
+  </si>
+  <si>
+    <t>139MB</t>
+  </si>
+  <si>
+    <t>141MB</t>
+  </si>
+  <si>
+    <t>140MB</t>
   </si>
 </sst>
 </file>
@@ -1318,7 +1372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1342,6 +1396,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1869,10 +1932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E7:L50"/>
+  <dimension ref="E7:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="D28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2586,29 +2649,29 @@
     </row>
     <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="6">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L37" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G37" s="1">
+        <v>1870</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1840</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1880</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1840</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1870</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>1860</v>
       </c>
     </row>
     <row r="38" spans="5:12" x14ac:dyDescent="0.25">
@@ -2616,24 +2679,24 @@
       <c r="F38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G38" s="1">
+        <v>2320</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2360</v>
+      </c>
+      <c r="I38" s="1">
+        <v>2610</v>
+      </c>
+      <c r="J38" s="1">
+        <v>2370</v>
+      </c>
+      <c r="K38" s="1">
+        <v>2330</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>2398</v>
       </c>
     </row>
     <row r="39" spans="5:12" x14ac:dyDescent="0.25">
@@ -2641,24 +2704,24 @@
       <c r="F39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L39" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G39" s="1">
+        <v>2180</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2150</v>
+      </c>
+      <c r="I39" s="1">
+        <v>2200</v>
+      </c>
+      <c r="J39" s="1">
+        <v>2140</v>
+      </c>
+      <c r="K39" s="1">
+        <v>2190</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>2172</v>
       </c>
     </row>
     <row r="40" spans="5:12" x14ac:dyDescent="0.25">
@@ -2666,24 +2729,24 @@
       <c r="F40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="L40" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G40" s="1">
+        <v>2190</v>
+      </c>
+      <c r="H40" s="1">
+        <v>2160</v>
+      </c>
+      <c r="I40" s="1">
+        <v>2220</v>
+      </c>
+      <c r="J40" s="1">
+        <v>2160</v>
+      </c>
+      <c r="K40" s="1">
+        <v>2200</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>2186</v>
       </c>
     </row>
     <row r="41" spans="5:12" x14ac:dyDescent="0.25">
@@ -2691,24 +2754,24 @@
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L41" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G41" s="1">
+        <v>374.2</v>
+      </c>
+      <c r="H41" s="1">
+        <v>368.94</v>
+      </c>
+      <c r="I41" s="1">
+        <v>376.91</v>
+      </c>
+      <c r="J41" s="1">
+        <v>368.58</v>
+      </c>
+      <c r="K41" s="1">
+        <v>375.15</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>372.75599999999997</v>
       </c>
     </row>
     <row r="42" spans="5:12" x14ac:dyDescent="0.25">
@@ -2741,24 +2804,24 @@
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G43" s="1">
+        <v>511.09</v>
+      </c>
+      <c r="H43" s="1">
+        <v>531.22</v>
+      </c>
+      <c r="I43" s="1">
+        <v>589.04</v>
+      </c>
+      <c r="J43" s="1">
+        <v>538.21</v>
+      </c>
+      <c r="K43" s="1">
+        <v>504.13</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>534.73800000000006</v>
       </c>
     </row>
     <row r="44" spans="5:12" x14ac:dyDescent="0.25">
@@ -2766,24 +2829,24 @@
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L44" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G44" s="1">
+        <v>441.89</v>
+      </c>
+      <c r="H44" s="1">
+        <v>435.53</v>
+      </c>
+      <c r="I44" s="1">
+        <v>444.57</v>
+      </c>
+      <c r="J44" s="1">
+        <v>434.26</v>
+      </c>
+      <c r="K44" s="1">
+        <v>442.54</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>439.75799999999998</v>
       </c>
     </row>
     <row r="45" spans="5:12" x14ac:dyDescent="0.25">
@@ -2791,24 +2854,24 @@
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L45" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G45" s="1">
+        <v>445.91</v>
+      </c>
+      <c r="H45" s="1">
+        <v>439.5</v>
+      </c>
+      <c r="I45" s="1">
+        <v>449.78</v>
+      </c>
+      <c r="J45" s="1">
+        <v>438.79</v>
+      </c>
+      <c r="K45" s="1">
+        <v>446.62</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>444.12</v>
       </c>
     </row>
     <row r="46" spans="5:12" x14ac:dyDescent="0.25">
@@ -2817,23 +2880,23 @@
         <v>6</v>
       </c>
       <c r="G46" s="1">
-        <v>3237870</v>
+        <v>2928170</v>
       </c>
       <c r="H46" s="1">
-        <v>3207480</v>
+        <v>2955200</v>
       </c>
       <c r="I46" s="1">
-        <v>3229370</v>
+        <v>2914430</v>
       </c>
       <c r="J46" s="1">
-        <v>3238130</v>
+        <v>2957050</v>
       </c>
       <c r="K46" s="1">
-        <v>3182630</v>
+        <v>2923385</v>
       </c>
       <c r="L46">
         <f t="shared" si="0"/>
-        <v>3219096</v>
+        <v>2935647</v>
       </c>
     </row>
     <row r="47" spans="5:12" x14ac:dyDescent="0.25">
@@ -2842,23 +2905,23 @@
         <v>7</v>
       </c>
       <c r="G47" s="1">
-        <v>960.6</v>
+        <v>961</v>
       </c>
       <c r="H47" s="1">
-        <v>960.5</v>
+        <v>960.8</v>
       </c>
       <c r="I47" s="1">
-        <v>960.8</v>
+        <v>960.9</v>
       </c>
       <c r="J47" s="1">
-        <v>960.5</v>
+        <v>960.7</v>
       </c>
       <c r="K47" s="1">
-        <v>960.8</v>
+        <v>960.7</v>
       </c>
       <c r="L47">
         <f t="shared" si="0"/>
-        <v>960.64</v>
+        <v>960.81999999999994</v>
       </c>
     </row>
     <row r="48" spans="5:12" x14ac:dyDescent="0.25">
@@ -2867,23 +2930,23 @@
         <v>8</v>
       </c>
       <c r="G48" s="1">
-        <v>3370.14</v>
+        <v>3047.14</v>
       </c>
       <c r="H48" s="1">
-        <v>3339.23</v>
+        <v>3075.62</v>
       </c>
       <c r="I48" s="1">
-        <v>3361.07</v>
+        <v>3032.88</v>
       </c>
       <c r="J48" s="1">
-        <v>3371.33</v>
+        <v>3077.88</v>
       </c>
       <c r="K48" s="1">
-        <v>3312.38</v>
+        <v>3043.02</v>
       </c>
       <c r="L48">
         <f t="shared" si="0"/>
-        <v>3350.8300000000004</v>
+        <v>3055.308</v>
       </c>
     </row>
     <row r="49" spans="5:12" x14ac:dyDescent="0.25">
@@ -2892,19 +2955,19 @@
         <v>11</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>124</v>
+        <v>392</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>124</v>
+        <v>392</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>124</v>
+        <v>392</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="L49" t="e">
         <f t="shared" si="0"/>
@@ -2917,31 +2980,328 @@
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="L50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E51" s="9">
+        <v>4000</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E52" s="10"/>
+      <c r="F52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E53" s="10"/>
+      <c r="F53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E54" s="10"/>
+      <c r="F54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E55" s="10"/>
+      <c r="F55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E56" s="10"/>
+      <c r="F56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E57" s="10"/>
+      <c r="F57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E58" s="10"/>
+      <c r="F58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E59" s="10"/>
+      <c r="F59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E60" s="10"/>
+      <c r="F60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="2">
+        <v>3237870</v>
+      </c>
+      <c r="H60" s="2">
+        <v>3207480</v>
+      </c>
+      <c r="I60" s="2">
+        <v>3229370</v>
+      </c>
+      <c r="J60" s="2">
+        <v>3238130</v>
+      </c>
+      <c r="K60" s="2">
+        <v>3182630</v>
+      </c>
+    </row>
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E61" s="10"/>
+      <c r="F61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="2">
+        <v>960.6</v>
+      </c>
+      <c r="H61" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="I61" s="2">
+        <v>960.8</v>
+      </c>
+      <c r="J61" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="K61" s="2">
+        <v>960.8</v>
+      </c>
+    </row>
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E62" s="10"/>
+      <c r="F62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="2">
+        <v>3370.14</v>
+      </c>
+      <c r="H62" s="2">
+        <v>3339.23</v>
+      </c>
+      <c r="I62" s="2">
+        <v>3361.07</v>
+      </c>
+      <c r="J62" s="2">
+        <v>3371.33</v>
+      </c>
+      <c r="K62" s="2">
+        <v>3312.38</v>
+      </c>
+    </row>
+    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E63" s="10"/>
+      <c r="F63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E64" s="11"/>
+      <c r="F64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H64" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I64" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J64" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="K64" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="L50" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E7:K7"/>
     <mergeCell ref="E9:E22"/>
     <mergeCell ref="E23:E36"/>
     <mergeCell ref="E37:E50"/>
+    <mergeCell ref="E51:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2949,10 +3309,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E427240-8CAA-40AB-9EE3-C007F0D8C5C2}">
-  <dimension ref="E7:L50"/>
+  <dimension ref="E7:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="C28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3666,7 +4026,7 @@
     </row>
     <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="6">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
@@ -3771,24 +4131,24 @@
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L41" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G41" s="1">
+        <v>273.2</v>
+      </c>
+      <c r="H41" s="1">
+        <v>254.86</v>
+      </c>
+      <c r="I41" s="1">
+        <v>250.86</v>
+      </c>
+      <c r="J41" s="1">
+        <v>256.54000000000002</v>
+      </c>
+      <c r="K41" s="1">
+        <v>251.87</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>257.46600000000001</v>
       </c>
     </row>
     <row r="42" spans="5:12" x14ac:dyDescent="0.25">
@@ -3821,24 +4181,24 @@
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="L43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G43" s="1">
+        <v>396.28</v>
+      </c>
+      <c r="H43" s="1">
+        <v>438.79</v>
+      </c>
+      <c r="I43" s="1">
+        <v>360.52</v>
+      </c>
+      <c r="J43" s="1">
+        <v>357.64</v>
+      </c>
+      <c r="K43" s="1">
+        <v>609.32000000000005</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>432.51000000000005</v>
       </c>
     </row>
     <row r="44" spans="5:12" x14ac:dyDescent="0.25">
@@ -3846,24 +4206,24 @@
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L44" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G44" s="1">
+        <v>330.49</v>
+      </c>
+      <c r="H44" s="1">
+        <v>309.64999999999998</v>
+      </c>
+      <c r="I44" s="1">
+        <v>303.20999999999998</v>
+      </c>
+      <c r="J44" s="1">
+        <v>311.44</v>
+      </c>
+      <c r="K44" s="1">
+        <v>305.92</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>312.142</v>
       </c>
     </row>
     <row r="45" spans="5:12" x14ac:dyDescent="0.25">
@@ -3871,24 +4231,24 @@
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="L45" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G45" s="1">
+        <v>336.07</v>
+      </c>
+      <c r="H45" s="1">
+        <v>317.76</v>
+      </c>
+      <c r="I45" s="1">
+        <v>310.7</v>
+      </c>
+      <c r="J45" s="1">
+        <v>319.32</v>
+      </c>
+      <c r="K45" s="1">
+        <v>315.08999999999997</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>319.78799999999995</v>
       </c>
     </row>
     <row r="46" spans="5:12" x14ac:dyDescent="0.25">
@@ -3897,23 +4257,23 @@
         <v>6</v>
       </c>
       <c r="G46" s="1">
-        <v>1521848</v>
+        <v>1320016</v>
       </c>
       <c r="H46" s="1">
-        <v>1513637</v>
+        <v>1339291</v>
       </c>
       <c r="I46" s="1">
-        <v>1521489</v>
+        <v>1343577</v>
       </c>
       <c r="J46" s="1">
-        <v>1519695</v>
+        <v>1337514</v>
       </c>
       <c r="K46" s="1">
-        <v>1518037</v>
+        <v>1342513</v>
       </c>
       <c r="L46">
         <f t="shared" si="0"/>
-        <v>1518941.2</v>
+        <v>1336582.2</v>
       </c>
     </row>
     <row r="47" spans="5:12" x14ac:dyDescent="0.25">
@@ -3922,23 +4282,23 @@
         <v>7</v>
       </c>
       <c r="G47" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="H47" s="1">
         <v>960.8</v>
       </c>
-      <c r="H47" s="1">
+      <c r="I47" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="J47" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="K47" s="1">
         <v>960.5</v>
       </c>
-      <c r="I47" s="1">
-        <v>960.9</v>
-      </c>
-      <c r="J47" s="1">
-        <v>960.9</v>
-      </c>
-      <c r="K47" s="1">
-        <v>960.9</v>
-      </c>
       <c r="L47">
         <f t="shared" si="0"/>
-        <v>960.8</v>
+        <v>960.68</v>
       </c>
     </row>
     <row r="48" spans="5:12" x14ac:dyDescent="0.25">
@@ -3947,23 +4307,23 @@
         <v>8</v>
       </c>
       <c r="G48" s="1">
-        <v>1583.92</v>
+        <v>1374.04</v>
       </c>
       <c r="H48" s="1">
-        <v>1575.84</v>
+        <v>1393.95</v>
       </c>
       <c r="I48" s="1">
-        <v>1583.47</v>
+        <v>1398.55</v>
       </c>
       <c r="J48" s="1">
-        <v>1581.99</v>
+        <v>1392.19</v>
       </c>
       <c r="K48" s="1">
-        <v>1579.87</v>
+        <v>1397.73</v>
       </c>
       <c r="L48">
         <f t="shared" si="0"/>
-        <v>1581.018</v>
+        <v>1391.2919999999999</v>
       </c>
     </row>
     <row r="49" spans="5:12" x14ac:dyDescent="0.25">
@@ -3972,19 +4332,19 @@
         <v>11</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>191</v>
+        <v>396</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>191</v>
+        <v>396</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>191</v>
+        <v>396</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>191</v>
+        <v>396</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>191</v>
+        <v>396</v>
       </c>
       <c r="L49" t="e">
         <f t="shared" si="0"/>
@@ -3997,31 +4357,328 @@
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="L50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E51" s="9">
+        <v>4000</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E52" s="10"/>
+      <c r="F52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E53" s="10"/>
+      <c r="F53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E54" s="10"/>
+      <c r="F54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E55" s="10"/>
+      <c r="F55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E56" s="10"/>
+      <c r="F56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E57" s="10"/>
+      <c r="F57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E58" s="10"/>
+      <c r="F58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E59" s="10"/>
+      <c r="F59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E60" s="10"/>
+      <c r="F60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1521848</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1513637</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1521489</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1519695</v>
+      </c>
+      <c r="K60" s="2">
+        <v>1518037</v>
+      </c>
+    </row>
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E61" s="10"/>
+      <c r="F61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="2">
+        <v>960.8</v>
+      </c>
+      <c r="H61" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="I61" s="2">
+        <v>960.9</v>
+      </c>
+      <c r="J61" s="2">
+        <v>960.9</v>
+      </c>
+      <c r="K61" s="2">
+        <v>960.9</v>
+      </c>
+    </row>
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E62" s="10"/>
+      <c r="F62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1583.92</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1575.84</v>
+      </c>
+      <c r="I62" s="2">
+        <v>1583.47</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1581.99</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1579.87</v>
+      </c>
+    </row>
+    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E63" s="10"/>
+      <c r="F63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E64" s="11"/>
+      <c r="F64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H64" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I64" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J64" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="K64" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="L50" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E7:K7"/>
     <mergeCell ref="E9:E22"/>
     <mergeCell ref="E23:E36"/>
     <mergeCell ref="E37:E50"/>
+    <mergeCell ref="E51:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4029,10 +4686,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FCC0AA-C984-4903-81D8-D871D2663DA5}">
-  <dimension ref="E7:L50"/>
+  <dimension ref="E7:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView topLeftCell="D30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4746,7 +5403,7 @@
     </row>
     <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="6">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
@@ -4851,24 +5508,24 @@
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="L41" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G41" s="1">
+        <v>588.4</v>
+      </c>
+      <c r="H41" s="1">
+        <v>592.53</v>
+      </c>
+      <c r="I41" s="1">
+        <v>587.79999999999995</v>
+      </c>
+      <c r="J41" s="1">
+        <v>582.42999999999995</v>
+      </c>
+      <c r="K41" s="1">
+        <v>578.44000000000005</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>585.91999999999996</v>
       </c>
     </row>
     <row r="42" spans="5:12" x14ac:dyDescent="0.25">
@@ -4901,24 +5558,24 @@
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G43" s="1">
+        <v>1030</v>
+      </c>
+      <c r="H43" s="1">
+        <v>900.16</v>
+      </c>
+      <c r="I43" s="1">
+        <v>802.41</v>
+      </c>
+      <c r="J43" s="1">
+        <v>879.93</v>
+      </c>
+      <c r="K43" s="1">
+        <v>807.14</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>883.92799999999988</v>
       </c>
     </row>
     <row r="44" spans="5:12" x14ac:dyDescent="0.25">
@@ -4926,24 +5583,24 @@
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="L44" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G44" s="1">
+        <v>693.03</v>
+      </c>
+      <c r="H44" s="1">
+        <v>701.06</v>
+      </c>
+      <c r="I44" s="1">
+        <v>696.81</v>
+      </c>
+      <c r="J44" s="1">
+        <v>688.24</v>
+      </c>
+      <c r="K44" s="1">
+        <v>685.68</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>692.96399999999983</v>
       </c>
     </row>
     <row r="45" spans="5:12" x14ac:dyDescent="0.25">
@@ -4951,24 +5608,24 @@
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="L45" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G45" s="1">
+        <v>700.26</v>
+      </c>
+      <c r="H45" s="1">
+        <v>707.29</v>
+      </c>
+      <c r="I45" s="1">
+        <v>702.52</v>
+      </c>
+      <c r="J45" s="1">
+        <v>695.3</v>
+      </c>
+      <c r="K45" s="1">
+        <v>691.91</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>699.4559999999999</v>
       </c>
     </row>
     <row r="46" spans="5:12" x14ac:dyDescent="0.25">
@@ -4977,23 +5634,23 @@
         <v>6</v>
       </c>
       <c r="G46" s="1">
-        <v>1108445</v>
+        <v>1058185</v>
       </c>
       <c r="H46" s="1">
-        <v>1107137</v>
+        <v>1055424</v>
       </c>
       <c r="I46" s="1">
-        <v>1103173</v>
+        <v>1058563</v>
       </c>
       <c r="J46" s="1">
-        <v>1085961</v>
+        <v>1062163</v>
       </c>
       <c r="K46" s="1">
-        <v>1103431</v>
+        <v>1064839</v>
       </c>
       <c r="L46">
         <f t="shared" si="0"/>
-        <v>1101629.3999999999</v>
+        <v>1059834.8</v>
       </c>
     </row>
     <row r="47" spans="5:12" x14ac:dyDescent="0.25">
@@ -5002,23 +5659,23 @@
         <v>7</v>
       </c>
       <c r="G47" s="1">
-        <v>960.5</v>
+        <v>961</v>
       </c>
       <c r="H47" s="1">
-        <v>960.7</v>
+        <v>960.6</v>
       </c>
       <c r="I47" s="1">
-        <v>960.7</v>
+        <v>960.8</v>
       </c>
       <c r="J47" s="1">
-        <v>960.7</v>
+        <v>961</v>
       </c>
       <c r="K47" s="1">
         <v>960.7</v>
       </c>
       <c r="L47">
         <f t="shared" si="0"/>
-        <v>960.66000000000008</v>
+        <v>960.81999999999994</v>
       </c>
     </row>
     <row r="48" spans="5:12" x14ac:dyDescent="0.25">
@@ -5027,23 +5684,23 @@
         <v>8</v>
       </c>
       <c r="G48" s="1">
-        <v>1154.06</v>
+        <v>1101.1300000000001</v>
       </c>
       <c r="H48" s="1">
-        <v>1152.44</v>
+        <v>1098.69</v>
       </c>
       <c r="I48" s="1">
-        <v>1148.25</v>
+        <v>1101.75</v>
       </c>
       <c r="J48" s="1">
-        <v>1130.3599999999999</v>
+        <v>1105.31</v>
       </c>
       <c r="K48" s="1">
-        <v>1148.53</v>
+        <v>1108.3499999999999</v>
       </c>
       <c r="L48">
         <f t="shared" si="0"/>
-        <v>1146.7279999999998</v>
+        <v>1103.0459999999998</v>
       </c>
     </row>
     <row r="49" spans="5:12" x14ac:dyDescent="0.25">
@@ -5052,19 +5709,19 @@
         <v>11</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>252</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="L49" t="e">
         <f t="shared" si="0"/>
@@ -5096,12 +5753,309 @@
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E51" s="9">
+        <v>4000</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E52" s="10"/>
+      <c r="F52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E53" s="10"/>
+      <c r="F53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E54" s="10"/>
+      <c r="F54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E55" s="10"/>
+      <c r="F55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E56" s="10"/>
+      <c r="F56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E57" s="10"/>
+      <c r="F57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E58" s="10"/>
+      <c r="F58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E59" s="10"/>
+      <c r="F59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E60" s="10"/>
+      <c r="F60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1108445</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1107137</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1103173</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1085961</v>
+      </c>
+      <c r="K60" s="2">
+        <v>1103431</v>
+      </c>
+    </row>
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E61" s="10"/>
+      <c r="F61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="H61" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="I61" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="J61" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="K61" s="2">
+        <v>960.7</v>
+      </c>
+    </row>
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E62" s="10"/>
+      <c r="F62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1154.06</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1152.44</v>
+      </c>
+      <c r="I62" s="2">
+        <v>1148.25</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1130.3599999999999</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1148.53</v>
+      </c>
+    </row>
+    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E63" s="10"/>
+      <c r="F63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E64" s="11"/>
+      <c r="F64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E7:K7"/>
     <mergeCell ref="E9:E22"/>
     <mergeCell ref="E23:E36"/>
     <mergeCell ref="E37:E50"/>
+    <mergeCell ref="E51:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5110,10 +6064,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33E3BDB-BD67-41A1-991C-2FB34B0212C5}">
-  <dimension ref="E7:L50"/>
+  <dimension ref="E7:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="D28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5827,7 +6781,7 @@
     </row>
     <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="6">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
@@ -5932,24 +6886,24 @@
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="L41" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G41" s="1">
+        <v>492.56</v>
+      </c>
+      <c r="H41" s="1">
+        <v>491.99</v>
+      </c>
+      <c r="I41" s="1">
+        <v>496.06</v>
+      </c>
+      <c r="J41" s="1">
+        <v>487.74</v>
+      </c>
+      <c r="K41" s="1">
+        <v>486.96</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>491.06200000000001</v>
       </c>
     </row>
     <row r="42" spans="5:12" x14ac:dyDescent="0.25">
@@ -5982,24 +6936,24 @@
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="L43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G43" s="1">
+        <v>684</v>
+      </c>
+      <c r="H43" s="1">
+        <v>783.98</v>
+      </c>
+      <c r="I43" s="1">
+        <v>743.45</v>
+      </c>
+      <c r="J43" s="1">
+        <v>759.78</v>
+      </c>
+      <c r="K43" s="1">
+        <v>634.84</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>721.21</v>
       </c>
     </row>
     <row r="44" spans="5:12" x14ac:dyDescent="0.25">
@@ -6007,24 +6961,24 @@
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="L44" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G44" s="1">
+        <v>586.29</v>
+      </c>
+      <c r="H44" s="1">
+        <v>584.41999999999996</v>
+      </c>
+      <c r="I44" s="1">
+        <v>590.24</v>
+      </c>
+      <c r="J44" s="1">
+        <v>579.99</v>
+      </c>
+      <c r="K44" s="1">
+        <v>579.13</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>584.01400000000001</v>
       </c>
     </row>
     <row r="45" spans="5:12" x14ac:dyDescent="0.25">
@@ -6032,24 +6986,24 @@
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="L45" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G45" s="1">
+        <v>591.78</v>
+      </c>
+      <c r="H45" s="1">
+        <v>594.89</v>
+      </c>
+      <c r="I45" s="1">
+        <v>598.57000000000005</v>
+      </c>
+      <c r="J45" s="1">
+        <v>587.51</v>
+      </c>
+      <c r="K45" s="1">
+        <v>584.45000000000005</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>591.43999999999994</v>
       </c>
     </row>
     <row r="46" spans="5:12" x14ac:dyDescent="0.25">
@@ -6058,23 +7012,23 @@
         <v>6</v>
       </c>
       <c r="G46" s="1">
-        <v>1165416</v>
+        <v>1126089</v>
       </c>
       <c r="H46" s="1">
-        <v>1180998</v>
+        <v>1126539</v>
       </c>
       <c r="I46" s="1">
-        <v>1182111</v>
+        <v>1123448</v>
       </c>
       <c r="J46" s="1">
-        <v>1164213</v>
+        <v>1129723</v>
       </c>
       <c r="K46" s="1">
-        <v>1162136</v>
+        <v>1130353</v>
       </c>
       <c r="L46">
         <f t="shared" si="0"/>
-        <v>1170974.8</v>
+        <v>1127230.3999999999</v>
       </c>
     </row>
     <row r="47" spans="5:12" x14ac:dyDescent="0.25">
@@ -6086,7 +7040,7 @@
         <v>960.4</v>
       </c>
       <c r="H47" s="1">
-        <v>960.7</v>
+        <v>960.9</v>
       </c>
       <c r="I47" s="1">
         <v>960.6</v>
@@ -6095,11 +7049,11 @@
         <v>960.6</v>
       </c>
       <c r="K47" s="1">
-        <v>960.9</v>
+        <v>961</v>
       </c>
       <c r="L47">
         <f t="shared" si="0"/>
-        <v>960.64</v>
+        <v>960.7</v>
       </c>
     </row>
     <row r="48" spans="5:12" x14ac:dyDescent="0.25">
@@ -6108,23 +7062,23 @@
         <v>8</v>
       </c>
       <c r="G48" s="1">
-        <v>1213.42</v>
+        <v>1172.57</v>
       </c>
       <c r="H48" s="1">
-        <v>1229.31</v>
+        <v>1172.42</v>
       </c>
       <c r="I48" s="1">
-        <v>1230.6400000000001</v>
+        <v>1169.49</v>
       </c>
       <c r="J48" s="1">
-        <v>1211.93</v>
+        <v>1176.1099999999999</v>
       </c>
       <c r="K48" s="1">
-        <v>1209.43</v>
+        <v>1176.28</v>
       </c>
       <c r="L48">
         <f t="shared" si="0"/>
-        <v>1218.9460000000001</v>
+        <v>1173.3739999999998</v>
       </c>
     </row>
     <row r="49" spans="5:12" x14ac:dyDescent="0.25">
@@ -6133,19 +7087,19 @@
         <v>11</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>295</v>
+        <v>382</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>301</v>
+        <v>384</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>305</v>
+        <v>385</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>308</v>
+        <v>387</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>311</v>
+        <v>387</v>
       </c>
       <c r="L49" t="e">
         <f t="shared" si="0"/>
@@ -6158,31 +7112,328 @@
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="L50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E51" s="9">
+        <v>4000</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E52" s="10"/>
+      <c r="F52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E53" s="10"/>
+      <c r="F53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E54" s="10"/>
+      <c r="F54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E55" s="10"/>
+      <c r="F55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E56" s="10"/>
+      <c r="F56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E57" s="10"/>
+      <c r="F57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E58" s="10"/>
+      <c r="F58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E59" s="10"/>
+      <c r="F59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E60" s="10"/>
+      <c r="F60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1165416</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1180998</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1182111</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1164213</v>
+      </c>
+      <c r="K60" s="2">
+        <v>1162136</v>
+      </c>
+    </row>
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E61" s="10"/>
+      <c r="F61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="2">
+        <v>960.4</v>
+      </c>
+      <c r="H61" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="I61" s="2">
+        <v>960.6</v>
+      </c>
+      <c r="J61" s="2">
+        <v>960.6</v>
+      </c>
+      <c r="K61" s="2">
+        <v>960.9</v>
+      </c>
+    </row>
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E62" s="10"/>
+      <c r="F62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1213.42</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1229.31</v>
+      </c>
+      <c r="I62" s="2">
+        <v>1230.6400000000001</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1211.93</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1209.43</v>
+      </c>
+    </row>
+    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E63" s="10"/>
+      <c r="F63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E64" s="11"/>
+      <c r="F64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H64" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I64" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J64" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="K64" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="L50" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E7:K7"/>
     <mergeCell ref="E9:E22"/>
     <mergeCell ref="E23:E36"/>
     <mergeCell ref="E37:E50"/>
+    <mergeCell ref="E51:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6191,10 +7442,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DECBD8-A425-424A-AD1A-0E08D414502E}">
-  <dimension ref="E7:L50"/>
+  <dimension ref="E7:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView topLeftCell="C28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6908,7 +8159,7 @@
     </row>
     <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="6">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
@@ -7013,24 +8264,24 @@
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="L41" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G41" s="1">
+        <v>91.22</v>
+      </c>
+      <c r="H41" s="1">
+        <v>100.42</v>
+      </c>
+      <c r="I41" s="1">
+        <v>88.12</v>
+      </c>
+      <c r="J41" s="1">
+        <v>88.33</v>
+      </c>
+      <c r="K41" s="1">
+        <v>88.38</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>91.293999999999997</v>
       </c>
     </row>
     <row r="42" spans="5:12" x14ac:dyDescent="0.25">
@@ -7063,24 +8314,24 @@
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>355</v>
+      <c r="G43" s="1">
+        <v>237.47</v>
+      </c>
+      <c r="H43" s="1">
+        <v>243.33</v>
       </c>
       <c r="I43" s="1">
-        <v>1490</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>355</v>
+        <v>203.98</v>
+      </c>
+      <c r="J43" s="1">
+        <v>280.68</v>
+      </c>
+      <c r="K43" s="1">
+        <v>197.49</v>
       </c>
       <c r="L43">
         <f t="shared" si="0"/>
-        <v>1490</v>
+        <v>232.59</v>
       </c>
     </row>
     <row r="44" spans="5:12" x14ac:dyDescent="0.25">
@@ -7088,24 +8339,24 @@
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>356</v>
+      <c r="G44" s="1">
+        <v>136.22</v>
+      </c>
+      <c r="H44" s="1">
+        <v>146.61000000000001</v>
       </c>
       <c r="I44" s="1">
-        <v>1360</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>356</v>
+        <v>132.65</v>
+      </c>
+      <c r="J44" s="1">
+        <v>135.83000000000001</v>
+      </c>
+      <c r="K44" s="1">
+        <v>132.54</v>
       </c>
       <c r="L44">
         <f t="shared" si="0"/>
-        <v>1360</v>
+        <v>136.77000000000001</v>
       </c>
     </row>
     <row r="45" spans="5:12" x14ac:dyDescent="0.25">
@@ -7113,24 +8364,24 @@
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>357</v>
+      <c r="G45" s="1">
+        <v>147</v>
+      </c>
+      <c r="H45" s="1">
+        <v>156.13</v>
       </c>
       <c r="I45" s="1">
-        <v>1380</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>357</v>
+        <v>142.53</v>
+      </c>
+      <c r="J45" s="1">
+        <v>147.4</v>
+      </c>
+      <c r="K45" s="1">
+        <v>141.83000000000001</v>
       </c>
       <c r="L45">
         <f t="shared" si="0"/>
-        <v>1380</v>
+        <v>146.97800000000001</v>
       </c>
     </row>
     <row r="46" spans="5:12" x14ac:dyDescent="0.25">
@@ -7139,23 +8390,23 @@
         <v>6</v>
       </c>
       <c r="G46" s="1">
-        <v>1550259</v>
+        <v>1540061</v>
       </c>
       <c r="H46" s="1">
-        <v>1550927</v>
+        <v>1527178</v>
       </c>
       <c r="I46" s="1">
-        <v>1553287</v>
+        <v>1544454</v>
       </c>
       <c r="J46" s="1">
-        <v>1549793</v>
+        <v>1544149</v>
       </c>
       <c r="K46" s="1">
-        <v>1549059</v>
+        <v>1544047</v>
       </c>
       <c r="L46">
         <f t="shared" si="0"/>
-        <v>1550665</v>
+        <v>1539977.8</v>
       </c>
     </row>
     <row r="47" spans="5:12" x14ac:dyDescent="0.25">
@@ -7164,23 +8415,23 @@
         <v>7</v>
       </c>
       <c r="G47" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="H47" s="1">
+        <v>960.4</v>
+      </c>
+      <c r="I47" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="J47" s="1">
         <v>960.9</v>
       </c>
-      <c r="H47" s="1">
-        <v>960.9</v>
-      </c>
-      <c r="I47" s="1">
-        <v>960.5</v>
-      </c>
-      <c r="J47" s="1">
-        <v>960.6</v>
-      </c>
       <c r="K47" s="1">
-        <v>960.6</v>
+        <v>960.8</v>
       </c>
       <c r="L47">
         <f t="shared" si="0"/>
-        <v>960.7</v>
+        <v>960.74</v>
       </c>
     </row>
     <row r="48" spans="5:12" x14ac:dyDescent="0.25">
@@ -7189,23 +8440,23 @@
         <v>8</v>
       </c>
       <c r="G48" s="1">
-        <v>1613.29</v>
+        <v>1602.86</v>
       </c>
       <c r="H48" s="1">
-        <v>1613.96</v>
+        <v>1590.08</v>
       </c>
       <c r="I48" s="1">
-        <v>1617.09</v>
+        <v>1607.47</v>
       </c>
       <c r="J48" s="1">
-        <v>1613.39</v>
+        <v>1607.03</v>
       </c>
       <c r="K48" s="1">
-        <v>1612.53</v>
+        <v>1607.06</v>
       </c>
       <c r="L48">
         <f t="shared" si="0"/>
-        <v>1614.0520000000001</v>
+        <v>1602.9</v>
       </c>
     </row>
     <row r="49" spans="5:12" x14ac:dyDescent="0.25">
@@ -7239,31 +8490,328 @@
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="L50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E51" s="9">
+        <v>4000</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E52" s="10"/>
+      <c r="F52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E53" s="10"/>
+      <c r="F53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E54" s="10"/>
+      <c r="F54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E55" s="10"/>
+      <c r="F55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E56" s="10"/>
+      <c r="F56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E57" s="10"/>
+      <c r="F57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1490</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E58" s="10"/>
+      <c r="F58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1360</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E59" s="10"/>
+      <c r="F59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I59" s="2">
+        <v>1380</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E60" s="10"/>
+      <c r="F60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1550259</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1550927</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1553287</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1549793</v>
+      </c>
+      <c r="K60" s="2">
+        <v>1549059</v>
+      </c>
+    </row>
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E61" s="10"/>
+      <c r="F61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="2">
+        <v>960.9</v>
+      </c>
+      <c r="H61" s="2">
+        <v>960.9</v>
+      </c>
+      <c r="I61" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="J61" s="2">
+        <v>960.6</v>
+      </c>
+      <c r="K61" s="2">
+        <v>960.6</v>
+      </c>
+    </row>
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E62" s="10"/>
+      <c r="F62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1613.29</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1613.96</v>
+      </c>
+      <c r="I62" s="2">
+        <v>1617.09</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1613.39</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1612.53</v>
+      </c>
+    </row>
+    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E63" s="10"/>
+      <c r="F63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E64" s="11"/>
+      <c r="F64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H64" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I64" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J64" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="K64" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="L50" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E7:K7"/>
     <mergeCell ref="E9:E22"/>
     <mergeCell ref="E23:E36"/>
     <mergeCell ref="E37:E50"/>
+    <mergeCell ref="E51:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7274,8 +8822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491B2463-697C-4FC5-A88C-76F5DBC70B85}">
   <dimension ref="E7:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView topLeftCell="D33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8280,260 +9828,260 @@
       </c>
     </row>
     <row r="51" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E51" s="6">
+      <c r="E51" s="9">
         <v>4000</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K51" s="1" t="s">
+      <c r="G51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="52" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E52" s="7"/>
-      <c r="F52" s="1" t="s">
+      <c r="E52" s="10"/>
+      <c r="F52" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K52" s="1" t="s">
+      <c r="G52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="53" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E53" s="7"/>
-      <c r="F53" s="1" t="s">
+      <c r="E53" s="10"/>
+      <c r="F53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K53" s="1" t="s">
+      <c r="G53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="54" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E54" s="7"/>
-      <c r="F54" s="1" t="s">
+      <c r="E54" s="10"/>
+      <c r="F54" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K54" s="1" t="s">
+      <c r="G54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="55" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E55" s="7"/>
-      <c r="F55" s="1" t="s">
+      <c r="E55" s="10"/>
+      <c r="F55" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="2">
         <v>1600</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55" s="2">
         <v>1610</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55" s="2">
         <v>1610</v>
       </c>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
     </row>
     <row r="56" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E56" s="7"/>
-      <c r="F56" s="1" t="s">
+      <c r="E56" s="10"/>
+      <c r="F56" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G56" s="1">
-        <v>0</v>
-      </c>
-      <c r="H56" s="1">
-        <v>0</v>
-      </c>
-      <c r="I56" s="1">
-        <v>0</v>
-      </c>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
     </row>
     <row r="57" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E57" s="7"/>
-      <c r="F57" s="1" t="s">
+      <c r="E57" s="10"/>
+      <c r="F57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="2">
         <v>2210</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57" s="2">
         <v>2100</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57" s="2">
         <v>2280</v>
       </c>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
     </row>
     <row r="58" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E58" s="7"/>
-      <c r="F58" s="1" t="s">
+      <c r="E58" s="10"/>
+      <c r="F58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58" s="2">
         <v>1880</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58" s="2">
         <v>1880</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58" s="2">
         <v>1890</v>
       </c>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
     </row>
     <row r="59" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E59" s="7"/>
-      <c r="F59" s="1" t="s">
+      <c r="E59" s="10"/>
+      <c r="F59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="2">
         <v>1900</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="2">
         <v>1900</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59" s="2">
         <v>1900</v>
       </c>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
     </row>
     <row r="60" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E60" s="7"/>
-      <c r="F60" s="1" t="s">
+      <c r="E60" s="10"/>
+      <c r="F60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60" s="2">
         <v>1288467</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60" s="2">
         <v>1287176</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60" s="2">
         <v>1284634</v>
       </c>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
     </row>
     <row r="61" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E61" s="7"/>
-      <c r="F61" s="1" t="s">
+      <c r="E61" s="10"/>
+      <c r="F61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61" s="2">
         <v>960.7</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H61" s="2">
         <v>960.9</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61" s="2">
         <v>960.9</v>
       </c>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
     </row>
     <row r="62" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E62" s="7"/>
-      <c r="F62" s="1" t="s">
+      <c r="E62" s="10"/>
+      <c r="F62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="2">
         <v>1341.12</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="2">
         <v>1339.48</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62" s="2">
         <v>1336.97</v>
       </c>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
     </row>
     <row r="63" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E63" s="7"/>
-      <c r="F63" s="1" t="s">
+      <c r="E63" s="10"/>
+      <c r="F63" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H63" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="I63" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
     </row>
     <row r="64" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E64" s="8"/>
-      <c r="F64" s="1" t="s">
+      <c r="E64" s="11"/>
+      <c r="F64" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I64" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8552,8 +10100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB6DA92-7223-446A-BEE3-0FF2B848B2A6}">
   <dimension ref="E7:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N66" sqref="N66"/>
+    <sheetView topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
